--- a/サンプルアプリケーション/設計書/02_方式設計/20_開発標準/020_テスト標準/単体テスト仕様書_取引単体(画面)_(取引ID)_(取引名).xlsx
+++ b/サンプルアプリケーション/設計書/02_方式設計/20_開発標準/020_テスト標準/単体テスト仕様書_取引単体(画面)_(取引ID)_(取引名).xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">取引単体①!$A$10:$R$102</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3">取引単体②!$A$10:$R$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">取引単体②!$A$10:$R$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">取引単体①!$A$1:$R$103</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">取引単体②!$A$1:$R$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="343">
   <si>
     <t>更新者：</t>
     <rPh sb="0" eb="3">
@@ -2132,55 +2132,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファイルアップロードのリクエストで、ファイルの中身を見る場合のみ実施</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設計書に、特別なファイルサイズ指定がある場合のみ実施する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログ出力に業務固有の要件が存在しない場合は、実施不要。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>共通化されたJSPを呼び出す場合、実施不要</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規ウインドウ表示の場合のみテスト</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規ウインドウかつ、IE専用の場合のみテスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最小表示件数が存在するときのみテスト</t>
-    <rPh sb="0" eb="2">
-      <t>サイショウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンスウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>不要。</t>
     <rPh sb="0" eb="2">
       <t>フヨウ</t>
@@ -2188,40 +2139,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">個々の画面で検索条件件数の制御を行っている場合のみテスト
-</t>
-    <rPh sb="0" eb="2">
-      <t>ココ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケンスウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CAPTCHA等、ランダム表示が存在する機能を個々の画面で実装している場合のみテスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Serviceのクラス単体テストで、編集処理が確認できている場合、取引単体テストでこのバリデーションを全てテストする必要はない。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2275,47 +2193,6 @@
   </si>
   <si>
     <t>●</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>業務仕様及びアーキテクチャを踏まえて、観点毎にテスト対象要否を見直すこと。</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カンテン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヨウヒ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ミナオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>個々の画面で最大表示件数の制御が必要な場合のみテスト</t>
-    <rPh sb="16" eb="18">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>バアイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4374,9 +4251,126 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="87" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="88" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4413,170 +4407,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="37" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="39" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="38" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="37" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="39" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="38" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="88" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5443,12 +5320,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="201" t="str">
+      <c r="I25" s="204" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="201"/>
-      <c r="K25" s="201"/>
+      <c r="J25" s="204"/>
+      <c r="K25" s="204"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -6008,55 +5885,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="211" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
-      <c r="N1" s="239"/>
-      <c r="O1" s="243" t="s">
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="220" t="s">
         <v>153</v>
       </c>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="244"/>
-      <c r="R1" s="245"/>
-      <c r="S1" s="252" t="s">
+      <c r="P1" s="221"/>
+      <c r="Q1" s="221"/>
+      <c r="R1" s="222"/>
+      <c r="S1" s="229" t="s">
         <v>171</v>
       </c>
-      <c r="T1" s="253"/>
-      <c r="U1" s="253"/>
-      <c r="V1" s="253"/>
-      <c r="W1" s="253"/>
-      <c r="X1" s="253"/>
-      <c r="Y1" s="253"/>
-      <c r="Z1" s="254"/>
-      <c r="AA1" s="234" t="s">
+      <c r="T1" s="230"/>
+      <c r="U1" s="230"/>
+      <c r="V1" s="230"/>
+      <c r="W1" s="230"/>
+      <c r="X1" s="230"/>
+      <c r="Y1" s="230"/>
+      <c r="Z1" s="231"/>
+      <c r="AA1" s="211" t="s">
         <v>154</v>
       </c>
-      <c r="AB1" s="236"/>
-      <c r="AC1" s="261" t="str">
+      <c r="AB1" s="213"/>
+      <c r="AC1" s="238" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="262"/>
-      <c r="AE1" s="262"/>
-      <c r="AF1" s="263"/>
-      <c r="AG1" s="228" t="str">
+      <c r="AD1" s="239"/>
+      <c r="AE1" s="239"/>
+      <c r="AF1" s="240"/>
+      <c r="AG1" s="205" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="229"/>
-      <c r="AI1" s="230"/>
+      <c r="AH1" s="206"/>
+      <c r="AI1" s="207"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -6064,51 +5941,51 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="234" t="s">
+      <c r="A2" s="211" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="238"/>
-      <c r="M2" s="238"/>
-      <c r="N2" s="239"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="247"/>
-      <c r="Q2" s="247"/>
-      <c r="R2" s="248"/>
-      <c r="S2" s="255"/>
-      <c r="T2" s="256"/>
-      <c r="U2" s="256"/>
-      <c r="V2" s="256"/>
-      <c r="W2" s="256"/>
-      <c r="X2" s="256"/>
-      <c r="Y2" s="256"/>
-      <c r="Z2" s="257"/>
-      <c r="AA2" s="234" t="s">
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="223"/>
+      <c r="P2" s="224"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="225"/>
+      <c r="S2" s="232"/>
+      <c r="T2" s="233"/>
+      <c r="U2" s="233"/>
+      <c r="V2" s="233"/>
+      <c r="W2" s="233"/>
+      <c r="X2" s="233"/>
+      <c r="Y2" s="233"/>
+      <c r="Z2" s="234"/>
+      <c r="AA2" s="211" t="s">
         <v>156</v>
       </c>
-      <c r="AB2" s="236"/>
-      <c r="AC2" s="240" t="str">
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="217" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="241"/>
-      <c r="AE2" s="241"/>
-      <c r="AF2" s="242"/>
-      <c r="AG2" s="228" t="str">
+      <c r="AD2" s="218"/>
+      <c r="AE2" s="218"/>
+      <c r="AF2" s="219"/>
+      <c r="AG2" s="205" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="229"/>
-      <c r="AI2" s="230"/>
+      <c r="AH2" s="206"/>
+      <c r="AI2" s="207"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -6116,43 +5993,43 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="211" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="238"/>
-      <c r="G3" s="238"/>
-      <c r="H3" s="238"/>
-      <c r="I3" s="238"/>
-      <c r="J3" s="238"/>
-      <c r="K3" s="238"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="238"/>
-      <c r="N3" s="239"/>
-      <c r="O3" s="249"/>
-      <c r="P3" s="250"/>
-      <c r="Q3" s="250"/>
-      <c r="R3" s="251"/>
-      <c r="S3" s="258"/>
-      <c r="T3" s="259"/>
-      <c r="U3" s="259"/>
-      <c r="V3" s="259"/>
-      <c r="W3" s="259"/>
-      <c r="X3" s="259"/>
-      <c r="Y3" s="259"/>
-      <c r="Z3" s="260"/>
-      <c r="AA3" s="234"/>
-      <c r="AB3" s="236"/>
-      <c r="AC3" s="261"/>
-      <c r="AD3" s="262"/>
-      <c r="AE3" s="262"/>
-      <c r="AF3" s="263"/>
-      <c r="AG3" s="228"/>
-      <c r="AH3" s="229"/>
-      <c r="AI3" s="230"/>
+      <c r="B3" s="212"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="215"/>
+      <c r="M3" s="215"/>
+      <c r="N3" s="216"/>
+      <c r="O3" s="226"/>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="228"/>
+      <c r="S3" s="235"/>
+      <c r="T3" s="236"/>
+      <c r="U3" s="236"/>
+      <c r="V3" s="236"/>
+      <c r="W3" s="236"/>
+      <c r="X3" s="236"/>
+      <c r="Y3" s="236"/>
+      <c r="Z3" s="237"/>
+      <c r="AA3" s="211"/>
+      <c r="AB3" s="213"/>
+      <c r="AC3" s="238"/>
+      <c r="AD3" s="239"/>
+      <c r="AE3" s="239"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="205"/>
+      <c r="AH3" s="206"/>
+      <c r="AI3" s="207"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -6189,1020 +6066,1176 @@
       <c r="A7" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="231" t="s">
+      <c r="B7" s="208" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="232"/>
-      <c r="D7" s="231" t="s">
+      <c r="C7" s="209"/>
+      <c r="D7" s="208" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="233"/>
-      <c r="F7" s="232"/>
-      <c r="G7" s="231" t="s">
+      <c r="E7" s="210"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="233"/>
-      <c r="I7" s="232"/>
-      <c r="J7" s="231" t="s">
+      <c r="H7" s="210"/>
+      <c r="I7" s="209"/>
+      <c r="J7" s="208" t="s">
         <v>162</v>
       </c>
-      <c r="K7" s="233"/>
-      <c r="L7" s="233"/>
-      <c r="M7" s="233"/>
-      <c r="N7" s="233"/>
-      <c r="O7" s="233"/>
-      <c r="P7" s="232"/>
-      <c r="Q7" s="231" t="s">
+      <c r="K7" s="210"/>
+      <c r="L7" s="210"/>
+      <c r="M7" s="210"/>
+      <c r="N7" s="210"/>
+      <c r="O7" s="210"/>
+      <c r="P7" s="209"/>
+      <c r="Q7" s="208" t="s">
         <v>163</v>
       </c>
-      <c r="R7" s="233"/>
-      <c r="S7" s="233"/>
-      <c r="T7" s="233"/>
-      <c r="U7" s="233"/>
-      <c r="V7" s="233"/>
-      <c r="W7" s="233"/>
-      <c r="X7" s="233"/>
-      <c r="Y7" s="233"/>
-      <c r="Z7" s="233"/>
-      <c r="AA7" s="233"/>
-      <c r="AB7" s="233"/>
-      <c r="AC7" s="233"/>
-      <c r="AD7" s="233"/>
-      <c r="AE7" s="232"/>
-      <c r="AF7" s="231" t="s">
+      <c r="R7" s="210"/>
+      <c r="S7" s="210"/>
+      <c r="T7" s="210"/>
+      <c r="U7" s="210"/>
+      <c r="V7" s="210"/>
+      <c r="W7" s="210"/>
+      <c r="X7" s="210"/>
+      <c r="Y7" s="210"/>
+      <c r="Z7" s="210"/>
+      <c r="AA7" s="210"/>
+      <c r="AB7" s="210"/>
+      <c r="AC7" s="210"/>
+      <c r="AD7" s="210"/>
+      <c r="AE7" s="209"/>
+      <c r="AF7" s="208" t="s">
         <v>164</v>
       </c>
-      <c r="AG7" s="233"/>
-      <c r="AH7" s="233"/>
-      <c r="AI7" s="232"/>
+      <c r="AG7" s="210"/>
+      <c r="AH7" s="210"/>
+      <c r="AI7" s="209"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="215"/>
-      <c r="C8" s="216"/>
-      <c r="D8" s="217"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="220"/>
-      <c r="H8" s="221"/>
-      <c r="I8" s="216"/>
-      <c r="J8" s="222"/>
-      <c r="K8" s="223"/>
-      <c r="L8" s="223"/>
-      <c r="M8" s="223"/>
-      <c r="N8" s="223"/>
-      <c r="O8" s="223"/>
-      <c r="P8" s="224"/>
-      <c r="Q8" s="225"/>
-      <c r="R8" s="226"/>
-      <c r="S8" s="226"/>
-      <c r="T8" s="226"/>
-      <c r="U8" s="226"/>
-      <c r="V8" s="226"/>
-      <c r="W8" s="226"/>
-      <c r="X8" s="226"/>
-      <c r="Y8" s="226"/>
-      <c r="Z8" s="226"/>
-      <c r="AA8" s="226"/>
-      <c r="AB8" s="226"/>
-      <c r="AC8" s="226"/>
-      <c r="AD8" s="226"/>
-      <c r="AE8" s="227"/>
-      <c r="AF8" s="222"/>
-      <c r="AG8" s="223"/>
-      <c r="AH8" s="223"/>
-      <c r="AI8" s="224"/>
+      <c r="B8" s="253"/>
+      <c r="C8" s="254"/>
+      <c r="D8" s="255"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="257"/>
+      <c r="G8" s="258"/>
+      <c r="H8" s="259"/>
+      <c r="I8" s="254"/>
+      <c r="J8" s="260"/>
+      <c r="K8" s="261"/>
+      <c r="L8" s="261"/>
+      <c r="M8" s="261"/>
+      <c r="N8" s="261"/>
+      <c r="O8" s="261"/>
+      <c r="P8" s="262"/>
+      <c r="Q8" s="263"/>
+      <c r="R8" s="264"/>
+      <c r="S8" s="264"/>
+      <c r="T8" s="264"/>
+      <c r="U8" s="264"/>
+      <c r="V8" s="264"/>
+      <c r="W8" s="264"/>
+      <c r="X8" s="264"/>
+      <c r="Y8" s="264"/>
+      <c r="Z8" s="264"/>
+      <c r="AA8" s="264"/>
+      <c r="AB8" s="264"/>
+      <c r="AC8" s="264"/>
+      <c r="AD8" s="264"/>
+      <c r="AE8" s="265"/>
+      <c r="AF8" s="260"/>
+      <c r="AG8" s="261"/>
+      <c r="AH8" s="261"/>
+      <c r="AI8" s="262"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="202"/>
-      <c r="C9" s="203"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="205"/>
-      <c r="F9" s="206"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="207"/>
-      <c r="I9" s="203"/>
-      <c r="J9" s="208"/>
-      <c r="K9" s="209"/>
-      <c r="L9" s="209"/>
-      <c r="M9" s="209"/>
-      <c r="N9" s="209"/>
-      <c r="O9" s="209"/>
-      <c r="P9" s="210"/>
-      <c r="Q9" s="211"/>
-      <c r="R9" s="212"/>
-      <c r="S9" s="212"/>
-      <c r="T9" s="212"/>
-      <c r="U9" s="212"/>
-      <c r="V9" s="212"/>
-      <c r="W9" s="212"/>
-      <c r="X9" s="212"/>
-      <c r="Y9" s="212"/>
-      <c r="Z9" s="212"/>
-      <c r="AA9" s="212"/>
-      <c r="AB9" s="212"/>
-      <c r="AC9" s="212"/>
-      <c r="AD9" s="212"/>
-      <c r="AE9" s="213"/>
-      <c r="AF9" s="208"/>
-      <c r="AG9" s="209"/>
-      <c r="AH9" s="209"/>
-      <c r="AI9" s="210"/>
+      <c r="B9" s="241"/>
+      <c r="C9" s="242"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="245"/>
+      <c r="G9" s="243"/>
+      <c r="H9" s="246"/>
+      <c r="I9" s="242"/>
+      <c r="J9" s="247"/>
+      <c r="K9" s="248"/>
+      <c r="L9" s="248"/>
+      <c r="M9" s="248"/>
+      <c r="N9" s="248"/>
+      <c r="O9" s="248"/>
+      <c r="P9" s="249"/>
+      <c r="Q9" s="250"/>
+      <c r="R9" s="251"/>
+      <c r="S9" s="251"/>
+      <c r="T9" s="251"/>
+      <c r="U9" s="251"/>
+      <c r="V9" s="251"/>
+      <c r="W9" s="251"/>
+      <c r="X9" s="251"/>
+      <c r="Y9" s="251"/>
+      <c r="Z9" s="251"/>
+      <c r="AA9" s="251"/>
+      <c r="AB9" s="251"/>
+      <c r="AC9" s="251"/>
+      <c r="AD9" s="251"/>
+      <c r="AE9" s="252"/>
+      <c r="AF9" s="247"/>
+      <c r="AG9" s="248"/>
+      <c r="AH9" s="248"/>
+      <c r="AI9" s="249"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="202"/>
-      <c r="C10" s="203"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="205"/>
-      <c r="F10" s="206"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="207"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="208"/>
-      <c r="K10" s="209"/>
-      <c r="L10" s="209"/>
-      <c r="M10" s="209"/>
-      <c r="N10" s="209"/>
-      <c r="O10" s="209"/>
-      <c r="P10" s="210"/>
-      <c r="Q10" s="211"/>
-      <c r="R10" s="212"/>
-      <c r="S10" s="212"/>
-      <c r="T10" s="212"/>
-      <c r="U10" s="212"/>
-      <c r="V10" s="212"/>
-      <c r="W10" s="212"/>
-      <c r="X10" s="212"/>
-      <c r="Y10" s="212"/>
-      <c r="Z10" s="212"/>
-      <c r="AA10" s="212"/>
-      <c r="AB10" s="212"/>
-      <c r="AC10" s="212"/>
-      <c r="AD10" s="212"/>
-      <c r="AE10" s="213"/>
-      <c r="AF10" s="208"/>
-      <c r="AG10" s="209"/>
-      <c r="AH10" s="209"/>
-      <c r="AI10" s="210"/>
+      <c r="B10" s="241"/>
+      <c r="C10" s="242"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="244"/>
+      <c r="F10" s="245"/>
+      <c r="G10" s="241"/>
+      <c r="H10" s="246"/>
+      <c r="I10" s="242"/>
+      <c r="J10" s="247"/>
+      <c r="K10" s="248"/>
+      <c r="L10" s="248"/>
+      <c r="M10" s="248"/>
+      <c r="N10" s="248"/>
+      <c r="O10" s="248"/>
+      <c r="P10" s="249"/>
+      <c r="Q10" s="250"/>
+      <c r="R10" s="251"/>
+      <c r="S10" s="251"/>
+      <c r="T10" s="251"/>
+      <c r="U10" s="251"/>
+      <c r="V10" s="251"/>
+      <c r="W10" s="251"/>
+      <c r="X10" s="251"/>
+      <c r="Y10" s="251"/>
+      <c r="Z10" s="251"/>
+      <c r="AA10" s="251"/>
+      <c r="AB10" s="251"/>
+      <c r="AC10" s="251"/>
+      <c r="AD10" s="251"/>
+      <c r="AE10" s="252"/>
+      <c r="AF10" s="247"/>
+      <c r="AG10" s="248"/>
+      <c r="AH10" s="248"/>
+      <c r="AI10" s="249"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="202"/>
-      <c r="C11" s="203"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="205"/>
-      <c r="F11" s="206"/>
-      <c r="G11" s="202"/>
-      <c r="H11" s="207"/>
-      <c r="I11" s="203"/>
-      <c r="J11" s="208"/>
-      <c r="K11" s="209"/>
-      <c r="L11" s="209"/>
-      <c r="M11" s="209"/>
-      <c r="N11" s="209"/>
-      <c r="O11" s="209"/>
-      <c r="P11" s="210"/>
-      <c r="Q11" s="211"/>
-      <c r="R11" s="212"/>
-      <c r="S11" s="212"/>
-      <c r="T11" s="212"/>
-      <c r="U11" s="212"/>
-      <c r="V11" s="212"/>
-      <c r="W11" s="212"/>
-      <c r="X11" s="212"/>
-      <c r="Y11" s="212"/>
-      <c r="Z11" s="212"/>
-      <c r="AA11" s="212"/>
-      <c r="AB11" s="212"/>
-      <c r="AC11" s="212"/>
-      <c r="AD11" s="212"/>
-      <c r="AE11" s="213"/>
-      <c r="AF11" s="208"/>
-      <c r="AG11" s="209"/>
-      <c r="AH11" s="209"/>
-      <c r="AI11" s="210"/>
+      <c r="B11" s="241"/>
+      <c r="C11" s="242"/>
+      <c r="D11" s="243"/>
+      <c r="E11" s="244"/>
+      <c r="F11" s="245"/>
+      <c r="G11" s="241"/>
+      <c r="H11" s="246"/>
+      <c r="I11" s="242"/>
+      <c r="J11" s="247"/>
+      <c r="K11" s="248"/>
+      <c r="L11" s="248"/>
+      <c r="M11" s="248"/>
+      <c r="N11" s="248"/>
+      <c r="O11" s="248"/>
+      <c r="P11" s="249"/>
+      <c r="Q11" s="250"/>
+      <c r="R11" s="251"/>
+      <c r="S11" s="251"/>
+      <c r="T11" s="251"/>
+      <c r="U11" s="251"/>
+      <c r="V11" s="251"/>
+      <c r="W11" s="251"/>
+      <c r="X11" s="251"/>
+      <c r="Y11" s="251"/>
+      <c r="Z11" s="251"/>
+      <c r="AA11" s="251"/>
+      <c r="AB11" s="251"/>
+      <c r="AC11" s="251"/>
+      <c r="AD11" s="251"/>
+      <c r="AE11" s="252"/>
+      <c r="AF11" s="247"/>
+      <c r="AG11" s="248"/>
+      <c r="AH11" s="248"/>
+      <c r="AI11" s="249"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="202"/>
-      <c r="C12" s="203"/>
-      <c r="D12" s="204"/>
-      <c r="E12" s="205"/>
-      <c r="F12" s="206"/>
-      <c r="G12" s="202"/>
-      <c r="H12" s="207"/>
-      <c r="I12" s="203"/>
-      <c r="J12" s="208"/>
-      <c r="K12" s="209"/>
-      <c r="L12" s="209"/>
-      <c r="M12" s="209"/>
-      <c r="N12" s="209"/>
-      <c r="O12" s="209"/>
-      <c r="P12" s="210"/>
-      <c r="Q12" s="211"/>
-      <c r="R12" s="212"/>
-      <c r="S12" s="212"/>
-      <c r="T12" s="212"/>
-      <c r="U12" s="212"/>
-      <c r="V12" s="212"/>
-      <c r="W12" s="212"/>
-      <c r="X12" s="212"/>
-      <c r="Y12" s="212"/>
-      <c r="Z12" s="212"/>
-      <c r="AA12" s="212"/>
-      <c r="AB12" s="212"/>
-      <c r="AC12" s="212"/>
-      <c r="AD12" s="212"/>
-      <c r="AE12" s="213"/>
-      <c r="AF12" s="208"/>
-      <c r="AG12" s="209"/>
-      <c r="AH12" s="209"/>
-      <c r="AI12" s="210"/>
+      <c r="B12" s="241"/>
+      <c r="C12" s="242"/>
+      <c r="D12" s="243"/>
+      <c r="E12" s="244"/>
+      <c r="F12" s="245"/>
+      <c r="G12" s="241"/>
+      <c r="H12" s="246"/>
+      <c r="I12" s="242"/>
+      <c r="J12" s="247"/>
+      <c r="K12" s="248"/>
+      <c r="L12" s="248"/>
+      <c r="M12" s="248"/>
+      <c r="N12" s="248"/>
+      <c r="O12" s="248"/>
+      <c r="P12" s="249"/>
+      <c r="Q12" s="250"/>
+      <c r="R12" s="251"/>
+      <c r="S12" s="251"/>
+      <c r="T12" s="251"/>
+      <c r="U12" s="251"/>
+      <c r="V12" s="251"/>
+      <c r="W12" s="251"/>
+      <c r="X12" s="251"/>
+      <c r="Y12" s="251"/>
+      <c r="Z12" s="251"/>
+      <c r="AA12" s="251"/>
+      <c r="AB12" s="251"/>
+      <c r="AC12" s="251"/>
+      <c r="AD12" s="251"/>
+      <c r="AE12" s="252"/>
+      <c r="AF12" s="247"/>
+      <c r="AG12" s="248"/>
+      <c r="AH12" s="248"/>
+      <c r="AI12" s="249"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="202"/>
-      <c r="C13" s="203"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="205"/>
-      <c r="F13" s="206"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="207"/>
-      <c r="I13" s="203"/>
-      <c r="J13" s="208"/>
-      <c r="K13" s="209"/>
-      <c r="L13" s="209"/>
-      <c r="M13" s="209"/>
-      <c r="N13" s="209"/>
-      <c r="O13" s="209"/>
-      <c r="P13" s="210"/>
-      <c r="Q13" s="211"/>
-      <c r="R13" s="212"/>
-      <c r="S13" s="212"/>
-      <c r="T13" s="212"/>
-      <c r="U13" s="212"/>
-      <c r="V13" s="212"/>
-      <c r="W13" s="212"/>
-      <c r="X13" s="212"/>
-      <c r="Y13" s="212"/>
-      <c r="Z13" s="212"/>
-      <c r="AA13" s="212"/>
-      <c r="AB13" s="212"/>
-      <c r="AC13" s="212"/>
-      <c r="AD13" s="212"/>
-      <c r="AE13" s="213"/>
-      <c r="AF13" s="208"/>
-      <c r="AG13" s="209"/>
-      <c r="AH13" s="209"/>
-      <c r="AI13" s="210"/>
+      <c r="B13" s="241"/>
+      <c r="C13" s="242"/>
+      <c r="D13" s="243"/>
+      <c r="E13" s="244"/>
+      <c r="F13" s="245"/>
+      <c r="G13" s="241"/>
+      <c r="H13" s="246"/>
+      <c r="I13" s="242"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="248"/>
+      <c r="L13" s="248"/>
+      <c r="M13" s="248"/>
+      <c r="N13" s="248"/>
+      <c r="O13" s="248"/>
+      <c r="P13" s="249"/>
+      <c r="Q13" s="250"/>
+      <c r="R13" s="251"/>
+      <c r="S13" s="251"/>
+      <c r="T13" s="251"/>
+      <c r="U13" s="251"/>
+      <c r="V13" s="251"/>
+      <c r="W13" s="251"/>
+      <c r="X13" s="251"/>
+      <c r="Y13" s="251"/>
+      <c r="Z13" s="251"/>
+      <c r="AA13" s="251"/>
+      <c r="AB13" s="251"/>
+      <c r="AC13" s="251"/>
+      <c r="AD13" s="251"/>
+      <c r="AE13" s="252"/>
+      <c r="AF13" s="247"/>
+      <c r="AG13" s="248"/>
+      <c r="AH13" s="248"/>
+      <c r="AI13" s="249"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="202"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="204"/>
-      <c r="E14" s="205"/>
-      <c r="F14" s="206"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="207"/>
-      <c r="I14" s="203"/>
-      <c r="J14" s="208"/>
-      <c r="K14" s="209"/>
-      <c r="L14" s="209"/>
-      <c r="M14" s="209"/>
-      <c r="N14" s="209"/>
-      <c r="O14" s="209"/>
-      <c r="P14" s="210"/>
-      <c r="Q14" s="211"/>
-      <c r="R14" s="212"/>
-      <c r="S14" s="212"/>
-      <c r="T14" s="212"/>
-      <c r="U14" s="212"/>
-      <c r="V14" s="212"/>
-      <c r="W14" s="212"/>
-      <c r="X14" s="212"/>
-      <c r="Y14" s="212"/>
-      <c r="Z14" s="212"/>
-      <c r="AA14" s="212"/>
-      <c r="AB14" s="212"/>
-      <c r="AC14" s="212"/>
-      <c r="AD14" s="212"/>
-      <c r="AE14" s="213"/>
-      <c r="AF14" s="208"/>
-      <c r="AG14" s="209"/>
-      <c r="AH14" s="209"/>
-      <c r="AI14" s="210"/>
+      <c r="B14" s="241"/>
+      <c r="C14" s="242"/>
+      <c r="D14" s="243"/>
+      <c r="E14" s="244"/>
+      <c r="F14" s="245"/>
+      <c r="G14" s="241"/>
+      <c r="H14" s="246"/>
+      <c r="I14" s="242"/>
+      <c r="J14" s="247"/>
+      <c r="K14" s="248"/>
+      <c r="L14" s="248"/>
+      <c r="M14" s="248"/>
+      <c r="N14" s="248"/>
+      <c r="O14" s="248"/>
+      <c r="P14" s="249"/>
+      <c r="Q14" s="250"/>
+      <c r="R14" s="251"/>
+      <c r="S14" s="251"/>
+      <c r="T14" s="251"/>
+      <c r="U14" s="251"/>
+      <c r="V14" s="251"/>
+      <c r="W14" s="251"/>
+      <c r="X14" s="251"/>
+      <c r="Y14" s="251"/>
+      <c r="Z14" s="251"/>
+      <c r="AA14" s="251"/>
+      <c r="AB14" s="251"/>
+      <c r="AC14" s="251"/>
+      <c r="AD14" s="251"/>
+      <c r="AE14" s="252"/>
+      <c r="AF14" s="247"/>
+      <c r="AG14" s="248"/>
+      <c r="AH14" s="248"/>
+      <c r="AI14" s="249"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="202"/>
-      <c r="C15" s="203"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="205"/>
-      <c r="F15" s="206"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="207"/>
-      <c r="I15" s="203"/>
-      <c r="J15" s="208"/>
-      <c r="K15" s="209"/>
-      <c r="L15" s="209"/>
-      <c r="M15" s="209"/>
-      <c r="N15" s="209"/>
-      <c r="O15" s="209"/>
-      <c r="P15" s="210"/>
-      <c r="Q15" s="211"/>
-      <c r="R15" s="212"/>
-      <c r="S15" s="212"/>
-      <c r="T15" s="212"/>
-      <c r="U15" s="212"/>
-      <c r="V15" s="212"/>
-      <c r="W15" s="212"/>
-      <c r="X15" s="212"/>
-      <c r="Y15" s="212"/>
-      <c r="Z15" s="212"/>
-      <c r="AA15" s="212"/>
-      <c r="AB15" s="212"/>
-      <c r="AC15" s="212"/>
-      <c r="AD15" s="212"/>
-      <c r="AE15" s="213"/>
-      <c r="AF15" s="208"/>
-      <c r="AG15" s="209"/>
-      <c r="AH15" s="209"/>
-      <c r="AI15" s="210"/>
+      <c r="B15" s="241"/>
+      <c r="C15" s="242"/>
+      <c r="D15" s="243"/>
+      <c r="E15" s="244"/>
+      <c r="F15" s="245"/>
+      <c r="G15" s="241"/>
+      <c r="H15" s="246"/>
+      <c r="I15" s="242"/>
+      <c r="J15" s="247"/>
+      <c r="K15" s="248"/>
+      <c r="L15" s="248"/>
+      <c r="M15" s="248"/>
+      <c r="N15" s="248"/>
+      <c r="O15" s="248"/>
+      <c r="P15" s="249"/>
+      <c r="Q15" s="250"/>
+      <c r="R15" s="251"/>
+      <c r="S15" s="251"/>
+      <c r="T15" s="251"/>
+      <c r="U15" s="251"/>
+      <c r="V15" s="251"/>
+      <c r="W15" s="251"/>
+      <c r="X15" s="251"/>
+      <c r="Y15" s="251"/>
+      <c r="Z15" s="251"/>
+      <c r="AA15" s="251"/>
+      <c r="AB15" s="251"/>
+      <c r="AC15" s="251"/>
+      <c r="AD15" s="251"/>
+      <c r="AE15" s="252"/>
+      <c r="AF15" s="247"/>
+      <c r="AG15" s="248"/>
+      <c r="AH15" s="248"/>
+      <c r="AI15" s="249"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="202"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="205"/>
-      <c r="F16" s="206"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="207"/>
-      <c r="I16" s="203"/>
-      <c r="J16" s="208"/>
-      <c r="K16" s="209"/>
-      <c r="L16" s="209"/>
-      <c r="M16" s="209"/>
-      <c r="N16" s="209"/>
-      <c r="O16" s="209"/>
-      <c r="P16" s="210"/>
-      <c r="Q16" s="211"/>
-      <c r="R16" s="212"/>
-      <c r="S16" s="212"/>
-      <c r="T16" s="212"/>
-      <c r="U16" s="212"/>
-      <c r="V16" s="212"/>
-      <c r="W16" s="212"/>
-      <c r="X16" s="212"/>
-      <c r="Y16" s="212"/>
-      <c r="Z16" s="212"/>
-      <c r="AA16" s="212"/>
-      <c r="AB16" s="212"/>
-      <c r="AC16" s="212"/>
-      <c r="AD16" s="212"/>
-      <c r="AE16" s="213"/>
-      <c r="AF16" s="208"/>
-      <c r="AG16" s="209"/>
-      <c r="AH16" s="209"/>
-      <c r="AI16" s="210"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="242"/>
+      <c r="D16" s="243"/>
+      <c r="E16" s="244"/>
+      <c r="F16" s="245"/>
+      <c r="G16" s="241"/>
+      <c r="H16" s="246"/>
+      <c r="I16" s="242"/>
+      <c r="J16" s="247"/>
+      <c r="K16" s="248"/>
+      <c r="L16" s="248"/>
+      <c r="M16" s="248"/>
+      <c r="N16" s="248"/>
+      <c r="O16" s="248"/>
+      <c r="P16" s="249"/>
+      <c r="Q16" s="250"/>
+      <c r="R16" s="251"/>
+      <c r="S16" s="251"/>
+      <c r="T16" s="251"/>
+      <c r="U16" s="251"/>
+      <c r="V16" s="251"/>
+      <c r="W16" s="251"/>
+      <c r="X16" s="251"/>
+      <c r="Y16" s="251"/>
+      <c r="Z16" s="251"/>
+      <c r="AA16" s="251"/>
+      <c r="AB16" s="251"/>
+      <c r="AC16" s="251"/>
+      <c r="AD16" s="251"/>
+      <c r="AE16" s="252"/>
+      <c r="AF16" s="247"/>
+      <c r="AG16" s="248"/>
+      <c r="AH16" s="248"/>
+      <c r="AI16" s="249"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="202"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="205"/>
-      <c r="F17" s="206"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="207"/>
-      <c r="I17" s="203"/>
-      <c r="J17" s="208"/>
-      <c r="K17" s="209"/>
-      <c r="L17" s="209"/>
-      <c r="M17" s="209"/>
-      <c r="N17" s="209"/>
-      <c r="O17" s="209"/>
-      <c r="P17" s="210"/>
-      <c r="Q17" s="211"/>
-      <c r="R17" s="212"/>
-      <c r="S17" s="212"/>
-      <c r="T17" s="212"/>
-      <c r="U17" s="212"/>
-      <c r="V17" s="212"/>
-      <c r="W17" s="212"/>
-      <c r="X17" s="212"/>
-      <c r="Y17" s="212"/>
-      <c r="Z17" s="212"/>
-      <c r="AA17" s="212"/>
-      <c r="AB17" s="212"/>
-      <c r="AC17" s="212"/>
-      <c r="AD17" s="212"/>
-      <c r="AE17" s="213"/>
-      <c r="AF17" s="208"/>
-      <c r="AG17" s="209"/>
-      <c r="AH17" s="209"/>
-      <c r="AI17" s="210"/>
+      <c r="B17" s="241"/>
+      <c r="C17" s="242"/>
+      <c r="D17" s="243"/>
+      <c r="E17" s="244"/>
+      <c r="F17" s="245"/>
+      <c r="G17" s="241"/>
+      <c r="H17" s="246"/>
+      <c r="I17" s="242"/>
+      <c r="J17" s="247"/>
+      <c r="K17" s="248"/>
+      <c r="L17" s="248"/>
+      <c r="M17" s="248"/>
+      <c r="N17" s="248"/>
+      <c r="O17" s="248"/>
+      <c r="P17" s="249"/>
+      <c r="Q17" s="250"/>
+      <c r="R17" s="251"/>
+      <c r="S17" s="251"/>
+      <c r="T17" s="251"/>
+      <c r="U17" s="251"/>
+      <c r="V17" s="251"/>
+      <c r="W17" s="251"/>
+      <c r="X17" s="251"/>
+      <c r="Y17" s="251"/>
+      <c r="Z17" s="251"/>
+      <c r="AA17" s="251"/>
+      <c r="AB17" s="251"/>
+      <c r="AC17" s="251"/>
+      <c r="AD17" s="251"/>
+      <c r="AE17" s="252"/>
+      <c r="AF17" s="247"/>
+      <c r="AG17" s="248"/>
+      <c r="AH17" s="248"/>
+      <c r="AI17" s="249"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="202"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="204"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="206"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="207"/>
-      <c r="I18" s="203"/>
-      <c r="J18" s="208"/>
-      <c r="K18" s="209"/>
-      <c r="L18" s="209"/>
-      <c r="M18" s="209"/>
-      <c r="N18" s="209"/>
-      <c r="O18" s="209"/>
-      <c r="P18" s="210"/>
-      <c r="Q18" s="211"/>
-      <c r="R18" s="212"/>
-      <c r="S18" s="212"/>
-      <c r="T18" s="212"/>
-      <c r="U18" s="212"/>
-      <c r="V18" s="212"/>
-      <c r="W18" s="212"/>
-      <c r="X18" s="212"/>
-      <c r="Y18" s="212"/>
-      <c r="Z18" s="212"/>
-      <c r="AA18" s="212"/>
-      <c r="AB18" s="212"/>
-      <c r="AC18" s="212"/>
-      <c r="AD18" s="212"/>
-      <c r="AE18" s="213"/>
-      <c r="AF18" s="208"/>
-      <c r="AG18" s="209"/>
-      <c r="AH18" s="209"/>
-      <c r="AI18" s="210"/>
+      <c r="B18" s="241"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="244"/>
+      <c r="F18" s="245"/>
+      <c r="G18" s="241"/>
+      <c r="H18" s="246"/>
+      <c r="I18" s="242"/>
+      <c r="J18" s="247"/>
+      <c r="K18" s="248"/>
+      <c r="L18" s="248"/>
+      <c r="M18" s="248"/>
+      <c r="N18" s="248"/>
+      <c r="O18" s="248"/>
+      <c r="P18" s="249"/>
+      <c r="Q18" s="250"/>
+      <c r="R18" s="251"/>
+      <c r="S18" s="251"/>
+      <c r="T18" s="251"/>
+      <c r="U18" s="251"/>
+      <c r="V18" s="251"/>
+      <c r="W18" s="251"/>
+      <c r="X18" s="251"/>
+      <c r="Y18" s="251"/>
+      <c r="Z18" s="251"/>
+      <c r="AA18" s="251"/>
+      <c r="AB18" s="251"/>
+      <c r="AC18" s="251"/>
+      <c r="AD18" s="251"/>
+      <c r="AE18" s="252"/>
+      <c r="AF18" s="247"/>
+      <c r="AG18" s="248"/>
+      <c r="AH18" s="248"/>
+      <c r="AI18" s="249"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="202"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="204"/>
-      <c r="E19" s="205"/>
-      <c r="F19" s="206"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="207"/>
-      <c r="I19" s="203"/>
-      <c r="J19" s="208"/>
-      <c r="K19" s="209"/>
-      <c r="L19" s="209"/>
-      <c r="M19" s="209"/>
-      <c r="N19" s="209"/>
-      <c r="O19" s="209"/>
-      <c r="P19" s="210"/>
-      <c r="Q19" s="211"/>
-      <c r="R19" s="212"/>
-      <c r="S19" s="212"/>
-      <c r="T19" s="212"/>
-      <c r="U19" s="212"/>
-      <c r="V19" s="212"/>
-      <c r="W19" s="212"/>
-      <c r="X19" s="212"/>
-      <c r="Y19" s="212"/>
-      <c r="Z19" s="212"/>
-      <c r="AA19" s="212"/>
-      <c r="AB19" s="212"/>
-      <c r="AC19" s="212"/>
-      <c r="AD19" s="212"/>
-      <c r="AE19" s="213"/>
-      <c r="AF19" s="208"/>
-      <c r="AG19" s="209"/>
-      <c r="AH19" s="209"/>
-      <c r="AI19" s="210"/>
+      <c r="B19" s="241"/>
+      <c r="C19" s="242"/>
+      <c r="D19" s="243"/>
+      <c r="E19" s="244"/>
+      <c r="F19" s="245"/>
+      <c r="G19" s="241"/>
+      <c r="H19" s="246"/>
+      <c r="I19" s="242"/>
+      <c r="J19" s="247"/>
+      <c r="K19" s="248"/>
+      <c r="L19" s="248"/>
+      <c r="M19" s="248"/>
+      <c r="N19" s="248"/>
+      <c r="O19" s="248"/>
+      <c r="P19" s="249"/>
+      <c r="Q19" s="250"/>
+      <c r="R19" s="251"/>
+      <c r="S19" s="251"/>
+      <c r="T19" s="251"/>
+      <c r="U19" s="251"/>
+      <c r="V19" s="251"/>
+      <c r="W19" s="251"/>
+      <c r="X19" s="251"/>
+      <c r="Y19" s="251"/>
+      <c r="Z19" s="251"/>
+      <c r="AA19" s="251"/>
+      <c r="AB19" s="251"/>
+      <c r="AC19" s="251"/>
+      <c r="AD19" s="251"/>
+      <c r="AE19" s="252"/>
+      <c r="AF19" s="247"/>
+      <c r="AG19" s="248"/>
+      <c r="AH19" s="248"/>
+      <c r="AI19" s="249"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="202"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="205"/>
-      <c r="F20" s="206"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="207"/>
-      <c r="I20" s="203"/>
-      <c r="J20" s="208"/>
-      <c r="K20" s="209"/>
-      <c r="L20" s="209"/>
-      <c r="M20" s="209"/>
-      <c r="N20" s="209"/>
-      <c r="O20" s="209"/>
-      <c r="P20" s="210"/>
-      <c r="Q20" s="211"/>
-      <c r="R20" s="212"/>
-      <c r="S20" s="212"/>
-      <c r="T20" s="212"/>
-      <c r="U20" s="212"/>
-      <c r="V20" s="212"/>
-      <c r="W20" s="212"/>
-      <c r="X20" s="212"/>
-      <c r="Y20" s="212"/>
-      <c r="Z20" s="212"/>
-      <c r="AA20" s="212"/>
-      <c r="AB20" s="212"/>
-      <c r="AC20" s="212"/>
-      <c r="AD20" s="212"/>
-      <c r="AE20" s="213"/>
-      <c r="AF20" s="208"/>
-      <c r="AG20" s="209"/>
-      <c r="AH20" s="209"/>
-      <c r="AI20" s="210"/>
+      <c r="B20" s="241"/>
+      <c r="C20" s="242"/>
+      <c r="D20" s="243"/>
+      <c r="E20" s="244"/>
+      <c r="F20" s="245"/>
+      <c r="G20" s="241"/>
+      <c r="H20" s="246"/>
+      <c r="I20" s="242"/>
+      <c r="J20" s="247"/>
+      <c r="K20" s="248"/>
+      <c r="L20" s="248"/>
+      <c r="M20" s="248"/>
+      <c r="N20" s="248"/>
+      <c r="O20" s="248"/>
+      <c r="P20" s="249"/>
+      <c r="Q20" s="250"/>
+      <c r="R20" s="251"/>
+      <c r="S20" s="251"/>
+      <c r="T20" s="251"/>
+      <c r="U20" s="251"/>
+      <c r="V20" s="251"/>
+      <c r="W20" s="251"/>
+      <c r="X20" s="251"/>
+      <c r="Y20" s="251"/>
+      <c r="Z20" s="251"/>
+      <c r="AA20" s="251"/>
+      <c r="AB20" s="251"/>
+      <c r="AC20" s="251"/>
+      <c r="AD20" s="251"/>
+      <c r="AE20" s="252"/>
+      <c r="AF20" s="247"/>
+      <c r="AG20" s="248"/>
+      <c r="AH20" s="248"/>
+      <c r="AI20" s="249"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="202"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="204"/>
-      <c r="E21" s="205"/>
-      <c r="F21" s="206"/>
-      <c r="G21" s="202"/>
-      <c r="H21" s="207"/>
-      <c r="I21" s="203"/>
-      <c r="J21" s="208"/>
-      <c r="K21" s="209"/>
-      <c r="L21" s="209"/>
-      <c r="M21" s="209"/>
-      <c r="N21" s="209"/>
-      <c r="O21" s="209"/>
-      <c r="P21" s="210"/>
-      <c r="Q21" s="211"/>
-      <c r="R21" s="212"/>
-      <c r="S21" s="212"/>
-      <c r="T21" s="212"/>
-      <c r="U21" s="212"/>
-      <c r="V21" s="212"/>
-      <c r="W21" s="212"/>
-      <c r="X21" s="212"/>
-      <c r="Y21" s="212"/>
-      <c r="Z21" s="212"/>
-      <c r="AA21" s="212"/>
-      <c r="AB21" s="212"/>
-      <c r="AC21" s="212"/>
-      <c r="AD21" s="212"/>
-      <c r="AE21" s="213"/>
-      <c r="AF21" s="208"/>
-      <c r="AG21" s="209"/>
-      <c r="AH21" s="209"/>
-      <c r="AI21" s="210"/>
+      <c r="B21" s="241"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="243"/>
+      <c r="E21" s="244"/>
+      <c r="F21" s="245"/>
+      <c r="G21" s="241"/>
+      <c r="H21" s="246"/>
+      <c r="I21" s="242"/>
+      <c r="J21" s="247"/>
+      <c r="K21" s="248"/>
+      <c r="L21" s="248"/>
+      <c r="M21" s="248"/>
+      <c r="N21" s="248"/>
+      <c r="O21" s="248"/>
+      <c r="P21" s="249"/>
+      <c r="Q21" s="250"/>
+      <c r="R21" s="251"/>
+      <c r="S21" s="251"/>
+      <c r="T21" s="251"/>
+      <c r="U21" s="251"/>
+      <c r="V21" s="251"/>
+      <c r="W21" s="251"/>
+      <c r="X21" s="251"/>
+      <c r="Y21" s="251"/>
+      <c r="Z21" s="251"/>
+      <c r="AA21" s="251"/>
+      <c r="AB21" s="251"/>
+      <c r="AC21" s="251"/>
+      <c r="AD21" s="251"/>
+      <c r="AE21" s="252"/>
+      <c r="AF21" s="247"/>
+      <c r="AG21" s="248"/>
+      <c r="AH21" s="248"/>
+      <c r="AI21" s="249"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="202"/>
-      <c r="C22" s="203"/>
-      <c r="D22" s="204"/>
-      <c r="E22" s="205"/>
-      <c r="F22" s="206"/>
-      <c r="G22" s="202"/>
-      <c r="H22" s="207"/>
-      <c r="I22" s="203"/>
-      <c r="J22" s="208"/>
-      <c r="K22" s="209"/>
-      <c r="L22" s="209"/>
-      <c r="M22" s="209"/>
-      <c r="N22" s="209"/>
-      <c r="O22" s="209"/>
-      <c r="P22" s="210"/>
-      <c r="Q22" s="211"/>
-      <c r="R22" s="212"/>
-      <c r="S22" s="212"/>
-      <c r="T22" s="212"/>
-      <c r="U22" s="212"/>
-      <c r="V22" s="212"/>
-      <c r="W22" s="212"/>
-      <c r="X22" s="212"/>
-      <c r="Y22" s="212"/>
-      <c r="Z22" s="212"/>
-      <c r="AA22" s="212"/>
-      <c r="AB22" s="212"/>
-      <c r="AC22" s="212"/>
-      <c r="AD22" s="212"/>
-      <c r="AE22" s="213"/>
-      <c r="AF22" s="208"/>
-      <c r="AG22" s="209"/>
-      <c r="AH22" s="209"/>
-      <c r="AI22" s="210"/>
+      <c r="B22" s="241"/>
+      <c r="C22" s="242"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="244"/>
+      <c r="F22" s="245"/>
+      <c r="G22" s="241"/>
+      <c r="H22" s="246"/>
+      <c r="I22" s="242"/>
+      <c r="J22" s="247"/>
+      <c r="K22" s="248"/>
+      <c r="L22" s="248"/>
+      <c r="M22" s="248"/>
+      <c r="N22" s="248"/>
+      <c r="O22" s="248"/>
+      <c r="P22" s="249"/>
+      <c r="Q22" s="250"/>
+      <c r="R22" s="251"/>
+      <c r="S22" s="251"/>
+      <c r="T22" s="251"/>
+      <c r="U22" s="251"/>
+      <c r="V22" s="251"/>
+      <c r="W22" s="251"/>
+      <c r="X22" s="251"/>
+      <c r="Y22" s="251"/>
+      <c r="Z22" s="251"/>
+      <c r="AA22" s="251"/>
+      <c r="AB22" s="251"/>
+      <c r="AC22" s="251"/>
+      <c r="AD22" s="251"/>
+      <c r="AE22" s="252"/>
+      <c r="AF22" s="247"/>
+      <c r="AG22" s="248"/>
+      <c r="AH22" s="248"/>
+      <c r="AI22" s="249"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="202"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="205"/>
-      <c r="F23" s="206"/>
-      <c r="G23" s="202"/>
-      <c r="H23" s="207"/>
-      <c r="I23" s="203"/>
-      <c r="J23" s="208"/>
-      <c r="K23" s="209"/>
-      <c r="L23" s="209"/>
-      <c r="M23" s="209"/>
-      <c r="N23" s="209"/>
-      <c r="O23" s="209"/>
-      <c r="P23" s="210"/>
-      <c r="Q23" s="211"/>
-      <c r="R23" s="212"/>
-      <c r="S23" s="212"/>
-      <c r="T23" s="212"/>
-      <c r="U23" s="212"/>
-      <c r="V23" s="212"/>
-      <c r="W23" s="212"/>
-      <c r="X23" s="212"/>
-      <c r="Y23" s="212"/>
-      <c r="Z23" s="212"/>
-      <c r="AA23" s="212"/>
-      <c r="AB23" s="212"/>
-      <c r="AC23" s="212"/>
-      <c r="AD23" s="212"/>
-      <c r="AE23" s="213"/>
-      <c r="AF23" s="208"/>
-      <c r="AG23" s="209"/>
-      <c r="AH23" s="209"/>
-      <c r="AI23" s="210"/>
+      <c r="B23" s="241"/>
+      <c r="C23" s="242"/>
+      <c r="D23" s="243"/>
+      <c r="E23" s="244"/>
+      <c r="F23" s="245"/>
+      <c r="G23" s="241"/>
+      <c r="H23" s="246"/>
+      <c r="I23" s="242"/>
+      <c r="J23" s="247"/>
+      <c r="K23" s="248"/>
+      <c r="L23" s="248"/>
+      <c r="M23" s="248"/>
+      <c r="N23" s="248"/>
+      <c r="O23" s="248"/>
+      <c r="P23" s="249"/>
+      <c r="Q23" s="250"/>
+      <c r="R23" s="251"/>
+      <c r="S23" s="251"/>
+      <c r="T23" s="251"/>
+      <c r="U23" s="251"/>
+      <c r="V23" s="251"/>
+      <c r="W23" s="251"/>
+      <c r="X23" s="251"/>
+      <c r="Y23" s="251"/>
+      <c r="Z23" s="251"/>
+      <c r="AA23" s="251"/>
+      <c r="AB23" s="251"/>
+      <c r="AC23" s="251"/>
+      <c r="AD23" s="251"/>
+      <c r="AE23" s="252"/>
+      <c r="AF23" s="247"/>
+      <c r="AG23" s="248"/>
+      <c r="AH23" s="248"/>
+      <c r="AI23" s="249"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="202"/>
-      <c r="C24" s="203"/>
-      <c r="D24" s="204"/>
-      <c r="E24" s="205"/>
-      <c r="F24" s="206"/>
-      <c r="G24" s="202"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="203"/>
-      <c r="J24" s="208"/>
-      <c r="K24" s="209"/>
-      <c r="L24" s="209"/>
-      <c r="M24" s="209"/>
-      <c r="N24" s="209"/>
-      <c r="O24" s="209"/>
-      <c r="P24" s="210"/>
-      <c r="Q24" s="211"/>
-      <c r="R24" s="212"/>
-      <c r="S24" s="212"/>
-      <c r="T24" s="212"/>
-      <c r="U24" s="212"/>
-      <c r="V24" s="212"/>
-      <c r="W24" s="212"/>
-      <c r="X24" s="212"/>
-      <c r="Y24" s="212"/>
-      <c r="Z24" s="212"/>
-      <c r="AA24" s="212"/>
-      <c r="AB24" s="212"/>
-      <c r="AC24" s="212"/>
-      <c r="AD24" s="212"/>
-      <c r="AE24" s="213"/>
-      <c r="AF24" s="208"/>
-      <c r="AG24" s="209"/>
-      <c r="AH24" s="209"/>
-      <c r="AI24" s="210"/>
+      <c r="B24" s="241"/>
+      <c r="C24" s="242"/>
+      <c r="D24" s="243"/>
+      <c r="E24" s="244"/>
+      <c r="F24" s="245"/>
+      <c r="G24" s="241"/>
+      <c r="H24" s="246"/>
+      <c r="I24" s="242"/>
+      <c r="J24" s="247"/>
+      <c r="K24" s="248"/>
+      <c r="L24" s="248"/>
+      <c r="M24" s="248"/>
+      <c r="N24" s="248"/>
+      <c r="O24" s="248"/>
+      <c r="P24" s="249"/>
+      <c r="Q24" s="250"/>
+      <c r="R24" s="251"/>
+      <c r="S24" s="251"/>
+      <c r="T24" s="251"/>
+      <c r="U24" s="251"/>
+      <c r="V24" s="251"/>
+      <c r="W24" s="251"/>
+      <c r="X24" s="251"/>
+      <c r="Y24" s="251"/>
+      <c r="Z24" s="251"/>
+      <c r="AA24" s="251"/>
+      <c r="AB24" s="251"/>
+      <c r="AC24" s="251"/>
+      <c r="AD24" s="251"/>
+      <c r="AE24" s="252"/>
+      <c r="AF24" s="247"/>
+      <c r="AG24" s="248"/>
+      <c r="AH24" s="248"/>
+      <c r="AI24" s="249"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="202"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="204"/>
-      <c r="E25" s="205"/>
-      <c r="F25" s="206"/>
-      <c r="G25" s="202"/>
-      <c r="H25" s="207"/>
-      <c r="I25" s="203"/>
-      <c r="J25" s="208"/>
-      <c r="K25" s="209"/>
-      <c r="L25" s="209"/>
-      <c r="M25" s="209"/>
-      <c r="N25" s="209"/>
-      <c r="O25" s="209"/>
-      <c r="P25" s="210"/>
-      <c r="Q25" s="211"/>
-      <c r="R25" s="212"/>
-      <c r="S25" s="212"/>
-      <c r="T25" s="212"/>
-      <c r="U25" s="212"/>
-      <c r="V25" s="212"/>
-      <c r="W25" s="212"/>
-      <c r="X25" s="212"/>
-      <c r="Y25" s="212"/>
-      <c r="Z25" s="212"/>
-      <c r="AA25" s="212"/>
-      <c r="AB25" s="212"/>
-      <c r="AC25" s="212"/>
-      <c r="AD25" s="212"/>
-      <c r="AE25" s="213"/>
-      <c r="AF25" s="208"/>
-      <c r="AG25" s="209"/>
-      <c r="AH25" s="209"/>
-      <c r="AI25" s="210"/>
+      <c r="B25" s="241"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="243"/>
+      <c r="E25" s="244"/>
+      <c r="F25" s="245"/>
+      <c r="G25" s="241"/>
+      <c r="H25" s="246"/>
+      <c r="I25" s="242"/>
+      <c r="J25" s="247"/>
+      <c r="K25" s="248"/>
+      <c r="L25" s="248"/>
+      <c r="M25" s="248"/>
+      <c r="N25" s="248"/>
+      <c r="O25" s="248"/>
+      <c r="P25" s="249"/>
+      <c r="Q25" s="250"/>
+      <c r="R25" s="251"/>
+      <c r="S25" s="251"/>
+      <c r="T25" s="251"/>
+      <c r="U25" s="251"/>
+      <c r="V25" s="251"/>
+      <c r="W25" s="251"/>
+      <c r="X25" s="251"/>
+      <c r="Y25" s="251"/>
+      <c r="Z25" s="251"/>
+      <c r="AA25" s="251"/>
+      <c r="AB25" s="251"/>
+      <c r="AC25" s="251"/>
+      <c r="AD25" s="251"/>
+      <c r="AE25" s="252"/>
+      <c r="AF25" s="247"/>
+      <c r="AG25" s="248"/>
+      <c r="AH25" s="248"/>
+      <c r="AI25" s="249"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="202"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="204"/>
-      <c r="E26" s="205"/>
-      <c r="F26" s="206"/>
-      <c r="G26" s="202"/>
-      <c r="H26" s="207"/>
-      <c r="I26" s="203"/>
-      <c r="J26" s="208"/>
-      <c r="K26" s="209"/>
-      <c r="L26" s="209"/>
-      <c r="M26" s="209"/>
-      <c r="N26" s="209"/>
-      <c r="O26" s="209"/>
-      <c r="P26" s="210"/>
-      <c r="Q26" s="211"/>
-      <c r="R26" s="212"/>
-      <c r="S26" s="212"/>
-      <c r="T26" s="212"/>
-      <c r="U26" s="212"/>
-      <c r="V26" s="212"/>
-      <c r="W26" s="212"/>
-      <c r="X26" s="212"/>
-      <c r="Y26" s="212"/>
-      <c r="Z26" s="212"/>
-      <c r="AA26" s="212"/>
-      <c r="AB26" s="212"/>
-      <c r="AC26" s="212"/>
-      <c r="AD26" s="212"/>
-      <c r="AE26" s="213"/>
-      <c r="AF26" s="208"/>
-      <c r="AG26" s="209"/>
-      <c r="AH26" s="209"/>
-      <c r="AI26" s="210"/>
+      <c r="B26" s="241"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="243"/>
+      <c r="E26" s="244"/>
+      <c r="F26" s="245"/>
+      <c r="G26" s="241"/>
+      <c r="H26" s="246"/>
+      <c r="I26" s="242"/>
+      <c r="J26" s="247"/>
+      <c r="K26" s="248"/>
+      <c r="L26" s="248"/>
+      <c r="M26" s="248"/>
+      <c r="N26" s="248"/>
+      <c r="O26" s="248"/>
+      <c r="P26" s="249"/>
+      <c r="Q26" s="250"/>
+      <c r="R26" s="251"/>
+      <c r="S26" s="251"/>
+      <c r="T26" s="251"/>
+      <c r="U26" s="251"/>
+      <c r="V26" s="251"/>
+      <c r="W26" s="251"/>
+      <c r="X26" s="251"/>
+      <c r="Y26" s="251"/>
+      <c r="Z26" s="251"/>
+      <c r="AA26" s="251"/>
+      <c r="AB26" s="251"/>
+      <c r="AC26" s="251"/>
+      <c r="AD26" s="251"/>
+      <c r="AE26" s="252"/>
+      <c r="AF26" s="247"/>
+      <c r="AG26" s="248"/>
+      <c r="AH26" s="248"/>
+      <c r="AI26" s="249"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="202"/>
-      <c r="C27" s="203"/>
-      <c r="D27" s="204"/>
-      <c r="E27" s="205"/>
-      <c r="F27" s="206"/>
-      <c r="G27" s="202"/>
-      <c r="H27" s="207"/>
-      <c r="I27" s="203"/>
-      <c r="J27" s="208"/>
-      <c r="K27" s="209"/>
-      <c r="L27" s="209"/>
-      <c r="M27" s="209"/>
-      <c r="N27" s="209"/>
-      <c r="O27" s="209"/>
-      <c r="P27" s="210"/>
-      <c r="Q27" s="211"/>
-      <c r="R27" s="212"/>
-      <c r="S27" s="212"/>
-      <c r="T27" s="212"/>
-      <c r="U27" s="212"/>
-      <c r="V27" s="212"/>
-      <c r="W27" s="212"/>
-      <c r="X27" s="212"/>
-      <c r="Y27" s="212"/>
-      <c r="Z27" s="212"/>
-      <c r="AA27" s="212"/>
-      <c r="AB27" s="212"/>
-      <c r="AC27" s="212"/>
-      <c r="AD27" s="212"/>
-      <c r="AE27" s="213"/>
-      <c r="AF27" s="208"/>
-      <c r="AG27" s="209"/>
-      <c r="AH27" s="209"/>
-      <c r="AI27" s="210"/>
+      <c r="B27" s="241"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="243"/>
+      <c r="E27" s="244"/>
+      <c r="F27" s="245"/>
+      <c r="G27" s="241"/>
+      <c r="H27" s="246"/>
+      <c r="I27" s="242"/>
+      <c r="J27" s="247"/>
+      <c r="K27" s="248"/>
+      <c r="L27" s="248"/>
+      <c r="M27" s="248"/>
+      <c r="N27" s="248"/>
+      <c r="O27" s="248"/>
+      <c r="P27" s="249"/>
+      <c r="Q27" s="250"/>
+      <c r="R27" s="251"/>
+      <c r="S27" s="251"/>
+      <c r="T27" s="251"/>
+      <c r="U27" s="251"/>
+      <c r="V27" s="251"/>
+      <c r="W27" s="251"/>
+      <c r="X27" s="251"/>
+      <c r="Y27" s="251"/>
+      <c r="Z27" s="251"/>
+      <c r="AA27" s="251"/>
+      <c r="AB27" s="251"/>
+      <c r="AC27" s="251"/>
+      <c r="AD27" s="251"/>
+      <c r="AE27" s="252"/>
+      <c r="AF27" s="247"/>
+      <c r="AG27" s="248"/>
+      <c r="AH27" s="248"/>
+      <c r="AI27" s="249"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="202"/>
-      <c r="C28" s="203"/>
-      <c r="D28" s="204"/>
-      <c r="E28" s="205"/>
-      <c r="F28" s="206"/>
-      <c r="G28" s="202"/>
-      <c r="H28" s="207"/>
-      <c r="I28" s="203"/>
-      <c r="J28" s="208"/>
-      <c r="K28" s="209"/>
-      <c r="L28" s="209"/>
-      <c r="M28" s="209"/>
-      <c r="N28" s="209"/>
-      <c r="O28" s="209"/>
-      <c r="P28" s="210"/>
-      <c r="Q28" s="211"/>
-      <c r="R28" s="212"/>
-      <c r="S28" s="212"/>
-      <c r="T28" s="212"/>
-      <c r="U28" s="212"/>
-      <c r="V28" s="212"/>
-      <c r="W28" s="212"/>
-      <c r="X28" s="212"/>
-      <c r="Y28" s="212"/>
-      <c r="Z28" s="212"/>
-      <c r="AA28" s="212"/>
-      <c r="AB28" s="212"/>
-      <c r="AC28" s="212"/>
-      <c r="AD28" s="212"/>
-      <c r="AE28" s="213"/>
-      <c r="AF28" s="208"/>
-      <c r="AG28" s="209"/>
-      <c r="AH28" s="209"/>
-      <c r="AI28" s="210"/>
+      <c r="B28" s="241"/>
+      <c r="C28" s="242"/>
+      <c r="D28" s="243"/>
+      <c r="E28" s="244"/>
+      <c r="F28" s="245"/>
+      <c r="G28" s="241"/>
+      <c r="H28" s="246"/>
+      <c r="I28" s="242"/>
+      <c r="J28" s="247"/>
+      <c r="K28" s="248"/>
+      <c r="L28" s="248"/>
+      <c r="M28" s="248"/>
+      <c r="N28" s="248"/>
+      <c r="O28" s="248"/>
+      <c r="P28" s="249"/>
+      <c r="Q28" s="250"/>
+      <c r="R28" s="251"/>
+      <c r="S28" s="251"/>
+      <c r="T28" s="251"/>
+      <c r="U28" s="251"/>
+      <c r="V28" s="251"/>
+      <c r="W28" s="251"/>
+      <c r="X28" s="251"/>
+      <c r="Y28" s="251"/>
+      <c r="Z28" s="251"/>
+      <c r="AA28" s="251"/>
+      <c r="AB28" s="251"/>
+      <c r="AC28" s="251"/>
+      <c r="AD28" s="251"/>
+      <c r="AE28" s="252"/>
+      <c r="AF28" s="247"/>
+      <c r="AG28" s="248"/>
+      <c r="AH28" s="248"/>
+      <c r="AI28" s="249"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="202"/>
-      <c r="C29" s="203"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="205"/>
-      <c r="F29" s="206"/>
-      <c r="G29" s="202"/>
-      <c r="H29" s="207"/>
-      <c r="I29" s="203"/>
-      <c r="J29" s="208"/>
-      <c r="K29" s="209"/>
-      <c r="L29" s="209"/>
-      <c r="M29" s="209"/>
-      <c r="N29" s="209"/>
-      <c r="O29" s="209"/>
-      <c r="P29" s="210"/>
-      <c r="Q29" s="211"/>
-      <c r="R29" s="212"/>
-      <c r="S29" s="212"/>
-      <c r="T29" s="212"/>
-      <c r="U29" s="212"/>
-      <c r="V29" s="212"/>
-      <c r="W29" s="212"/>
-      <c r="X29" s="212"/>
-      <c r="Y29" s="212"/>
-      <c r="Z29" s="212"/>
-      <c r="AA29" s="212"/>
-      <c r="AB29" s="212"/>
-      <c r="AC29" s="212"/>
-      <c r="AD29" s="212"/>
-      <c r="AE29" s="213"/>
-      <c r="AF29" s="208"/>
-      <c r="AG29" s="209"/>
-      <c r="AH29" s="209"/>
-      <c r="AI29" s="210"/>
+      <c r="B29" s="241"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="243"/>
+      <c r="E29" s="244"/>
+      <c r="F29" s="245"/>
+      <c r="G29" s="241"/>
+      <c r="H29" s="246"/>
+      <c r="I29" s="242"/>
+      <c r="J29" s="247"/>
+      <c r="K29" s="248"/>
+      <c r="L29" s="248"/>
+      <c r="M29" s="248"/>
+      <c r="N29" s="248"/>
+      <c r="O29" s="248"/>
+      <c r="P29" s="249"/>
+      <c r="Q29" s="250"/>
+      <c r="R29" s="251"/>
+      <c r="S29" s="251"/>
+      <c r="T29" s="251"/>
+      <c r="U29" s="251"/>
+      <c r="V29" s="251"/>
+      <c r="W29" s="251"/>
+      <c r="X29" s="251"/>
+      <c r="Y29" s="251"/>
+      <c r="Z29" s="251"/>
+      <c r="AA29" s="251"/>
+      <c r="AB29" s="251"/>
+      <c r="AC29" s="251"/>
+      <c r="AD29" s="251"/>
+      <c r="AE29" s="252"/>
+      <c r="AF29" s="247"/>
+      <c r="AG29" s="248"/>
+      <c r="AH29" s="248"/>
+      <c r="AI29" s="249"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="202"/>
-      <c r="C30" s="203"/>
-      <c r="D30" s="204"/>
-      <c r="E30" s="205"/>
-      <c r="F30" s="206"/>
-      <c r="G30" s="202"/>
-      <c r="H30" s="207"/>
-      <c r="I30" s="203"/>
-      <c r="J30" s="208"/>
-      <c r="K30" s="209"/>
-      <c r="L30" s="209"/>
-      <c r="M30" s="209"/>
-      <c r="N30" s="209"/>
-      <c r="O30" s="209"/>
-      <c r="P30" s="210"/>
-      <c r="Q30" s="211"/>
-      <c r="R30" s="212"/>
-      <c r="S30" s="212"/>
-      <c r="T30" s="212"/>
-      <c r="U30" s="212"/>
-      <c r="V30" s="212"/>
-      <c r="W30" s="212"/>
-      <c r="X30" s="212"/>
-      <c r="Y30" s="212"/>
-      <c r="Z30" s="212"/>
-      <c r="AA30" s="212"/>
-      <c r="AB30" s="212"/>
-      <c r="AC30" s="212"/>
-      <c r="AD30" s="212"/>
-      <c r="AE30" s="213"/>
-      <c r="AF30" s="208"/>
-      <c r="AG30" s="209"/>
-      <c r="AH30" s="209"/>
-      <c r="AI30" s="210"/>
+      <c r="B30" s="241"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="243"/>
+      <c r="E30" s="244"/>
+      <c r="F30" s="245"/>
+      <c r="G30" s="241"/>
+      <c r="H30" s="246"/>
+      <c r="I30" s="242"/>
+      <c r="J30" s="247"/>
+      <c r="K30" s="248"/>
+      <c r="L30" s="248"/>
+      <c r="M30" s="248"/>
+      <c r="N30" s="248"/>
+      <c r="O30" s="248"/>
+      <c r="P30" s="249"/>
+      <c r="Q30" s="250"/>
+      <c r="R30" s="251"/>
+      <c r="S30" s="251"/>
+      <c r="T30" s="251"/>
+      <c r="U30" s="251"/>
+      <c r="V30" s="251"/>
+      <c r="W30" s="251"/>
+      <c r="X30" s="251"/>
+      <c r="Y30" s="251"/>
+      <c r="Z30" s="251"/>
+      <c r="AA30" s="251"/>
+      <c r="AB30" s="251"/>
+      <c r="AC30" s="251"/>
+      <c r="AD30" s="251"/>
+      <c r="AE30" s="252"/>
+      <c r="AF30" s="247"/>
+      <c r="AG30" s="248"/>
+      <c r="AH30" s="248"/>
+      <c r="AI30" s="249"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="202"/>
-      <c r="C31" s="203"/>
-      <c r="D31" s="204"/>
-      <c r="E31" s="205"/>
-      <c r="F31" s="206"/>
-      <c r="G31" s="202"/>
-      <c r="H31" s="207"/>
-      <c r="I31" s="203"/>
-      <c r="J31" s="208"/>
-      <c r="K31" s="209"/>
-      <c r="L31" s="209"/>
-      <c r="M31" s="209"/>
-      <c r="N31" s="209"/>
-      <c r="O31" s="209"/>
-      <c r="P31" s="210"/>
-      <c r="Q31" s="211"/>
-      <c r="R31" s="212"/>
-      <c r="S31" s="212"/>
-      <c r="T31" s="212"/>
-      <c r="U31" s="212"/>
-      <c r="V31" s="212"/>
-      <c r="W31" s="212"/>
-      <c r="X31" s="212"/>
-      <c r="Y31" s="212"/>
-      <c r="Z31" s="212"/>
-      <c r="AA31" s="212"/>
-      <c r="AB31" s="212"/>
-      <c r="AC31" s="212"/>
-      <c r="AD31" s="212"/>
-      <c r="AE31" s="213"/>
-      <c r="AF31" s="208"/>
-      <c r="AG31" s="209"/>
-      <c r="AH31" s="209"/>
-      <c r="AI31" s="210"/>
+      <c r="B31" s="241"/>
+      <c r="C31" s="242"/>
+      <c r="D31" s="243"/>
+      <c r="E31" s="244"/>
+      <c r="F31" s="245"/>
+      <c r="G31" s="241"/>
+      <c r="H31" s="246"/>
+      <c r="I31" s="242"/>
+      <c r="J31" s="247"/>
+      <c r="K31" s="248"/>
+      <c r="L31" s="248"/>
+      <c r="M31" s="248"/>
+      <c r="N31" s="248"/>
+      <c r="O31" s="248"/>
+      <c r="P31" s="249"/>
+      <c r="Q31" s="250"/>
+      <c r="R31" s="251"/>
+      <c r="S31" s="251"/>
+      <c r="T31" s="251"/>
+      <c r="U31" s="251"/>
+      <c r="V31" s="251"/>
+      <c r="W31" s="251"/>
+      <c r="X31" s="251"/>
+      <c r="Y31" s="251"/>
+      <c r="Z31" s="251"/>
+      <c r="AA31" s="251"/>
+      <c r="AB31" s="251"/>
+      <c r="AC31" s="251"/>
+      <c r="AD31" s="251"/>
+      <c r="AE31" s="252"/>
+      <c r="AF31" s="247"/>
+      <c r="AG31" s="248"/>
+      <c r="AH31" s="248"/>
+      <c r="AI31" s="249"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="202"/>
-      <c r="C32" s="203"/>
-      <c r="D32" s="204"/>
-      <c r="E32" s="205"/>
-      <c r="F32" s="206"/>
-      <c r="G32" s="202"/>
-      <c r="H32" s="207"/>
-      <c r="I32" s="203"/>
-      <c r="J32" s="208"/>
-      <c r="K32" s="214"/>
-      <c r="L32" s="209"/>
-      <c r="M32" s="209"/>
-      <c r="N32" s="209"/>
-      <c r="O32" s="209"/>
-      <c r="P32" s="210"/>
-      <c r="Q32" s="211"/>
-      <c r="R32" s="212"/>
-      <c r="S32" s="212"/>
-      <c r="T32" s="212"/>
-      <c r="U32" s="212"/>
-      <c r="V32" s="212"/>
-      <c r="W32" s="212"/>
-      <c r="X32" s="212"/>
-      <c r="Y32" s="212"/>
-      <c r="Z32" s="212"/>
-      <c r="AA32" s="212"/>
-      <c r="AB32" s="212"/>
-      <c r="AC32" s="212"/>
-      <c r="AD32" s="212"/>
-      <c r="AE32" s="213"/>
-      <c r="AF32" s="208"/>
-      <c r="AG32" s="209"/>
-      <c r="AH32" s="209"/>
-      <c r="AI32" s="210"/>
+      <c r="B32" s="241"/>
+      <c r="C32" s="242"/>
+      <c r="D32" s="243"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="245"/>
+      <c r="G32" s="241"/>
+      <c r="H32" s="246"/>
+      <c r="I32" s="242"/>
+      <c r="J32" s="247"/>
+      <c r="K32" s="266"/>
+      <c r="L32" s="248"/>
+      <c r="M32" s="248"/>
+      <c r="N32" s="248"/>
+      <c r="O32" s="248"/>
+      <c r="P32" s="249"/>
+      <c r="Q32" s="250"/>
+      <c r="R32" s="251"/>
+      <c r="S32" s="251"/>
+      <c r="T32" s="251"/>
+      <c r="U32" s="251"/>
+      <c r="V32" s="251"/>
+      <c r="W32" s="251"/>
+      <c r="X32" s="251"/>
+      <c r="Y32" s="251"/>
+      <c r="Z32" s="251"/>
+      <c r="AA32" s="251"/>
+      <c r="AB32" s="251"/>
+      <c r="AC32" s="251"/>
+      <c r="AD32" s="251"/>
+      <c r="AE32" s="252"/>
+      <c r="AF32" s="247"/>
+      <c r="AG32" s="248"/>
+      <c r="AH32" s="248"/>
+      <c r="AI32" s="249"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="202"/>
-      <c r="C33" s="203"/>
-      <c r="D33" s="204"/>
-      <c r="E33" s="205"/>
-      <c r="F33" s="206"/>
-      <c r="G33" s="202"/>
-      <c r="H33" s="207"/>
-      <c r="I33" s="203"/>
-      <c r="J33" s="208"/>
-      <c r="K33" s="209"/>
-      <c r="L33" s="209"/>
-      <c r="M33" s="209"/>
-      <c r="N33" s="209"/>
-      <c r="O33" s="209"/>
-      <c r="P33" s="210"/>
-      <c r="Q33" s="211"/>
-      <c r="R33" s="212"/>
-      <c r="S33" s="212"/>
-      <c r="T33" s="212"/>
-      <c r="U33" s="212"/>
-      <c r="V33" s="212"/>
-      <c r="W33" s="212"/>
-      <c r="X33" s="212"/>
-      <c r="Y33" s="212"/>
-      <c r="Z33" s="212"/>
-      <c r="AA33" s="212"/>
-      <c r="AB33" s="212"/>
-      <c r="AC33" s="212"/>
-      <c r="AD33" s="212"/>
-      <c r="AE33" s="213"/>
-      <c r="AF33" s="208"/>
-      <c r="AG33" s="209"/>
-      <c r="AH33" s="209"/>
-      <c r="AI33" s="210"/>
+      <c r="B33" s="241"/>
+      <c r="C33" s="242"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="245"/>
+      <c r="G33" s="241"/>
+      <c r="H33" s="246"/>
+      <c r="I33" s="242"/>
+      <c r="J33" s="247"/>
+      <c r="K33" s="248"/>
+      <c r="L33" s="248"/>
+      <c r="M33" s="248"/>
+      <c r="N33" s="248"/>
+      <c r="O33" s="248"/>
+      <c r="P33" s="249"/>
+      <c r="Q33" s="250"/>
+      <c r="R33" s="251"/>
+      <c r="S33" s="251"/>
+      <c r="T33" s="251"/>
+      <c r="U33" s="251"/>
+      <c r="V33" s="251"/>
+      <c r="W33" s="251"/>
+      <c r="X33" s="251"/>
+      <c r="Y33" s="251"/>
+      <c r="Z33" s="251"/>
+      <c r="AA33" s="251"/>
+      <c r="AB33" s="251"/>
+      <c r="AC33" s="251"/>
+      <c r="AD33" s="251"/>
+      <c r="AE33" s="252"/>
+      <c r="AF33" s="247"/>
+      <c r="AG33" s="248"/>
+      <c r="AH33" s="248"/>
+      <c r="AI33" s="249"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -7226,162 +7259,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7393,7 +7270,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1">
+  <sheetPr codeName="Sheet1" filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R128"/>
@@ -7407,9 +7284,9 @@
     <col min="3" max="3" width="14.25" style="25" customWidth="1"/>
     <col min="4" max="4" width="15.625" style="26" customWidth="1"/>
     <col min="5" max="5" width="28.875" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.875" style="121" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="60.625" style="122" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="23.375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="5.875" style="121" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="60.625" style="122" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="23.375" style="25" customWidth="1" collapsed="1"/>
     <col min="9" max="10" width="30.625" style="25" customWidth="1"/>
     <col min="11" max="11" width="17.25" style="25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" style="25" customWidth="1"/>
@@ -7482,9 +7359,7 @@
       <c r="R8" s="27"/>
     </row>
     <row r="9" spans="1:18" ht="12" thickTop="1">
-      <c r="F9" s="25" t="s">
-        <v>323</v>
-      </c>
+      <c r="F9" s="25"/>
       <c r="G9" s="152"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1">
@@ -7504,10 +7379,10 @@
         <v>98</v>
       </c>
       <c r="F10" s="147" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G10" s="153" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="H10" s="145" t="s">
         <v>12</v>
@@ -7773,7 +7648,7 @@
       <c r="Q18" s="34"/>
       <c r="R18" s="48"/>
     </row>
-    <row r="19" spans="1:18" s="32" customFormat="1" ht="22.5">
+    <row r="19" spans="1:18" s="32" customFormat="1" ht="22.5" hidden="1">
       <c r="A19" s="72" t="s">
         <v>101</v>
       </c>
@@ -7786,10 +7661,10 @@
         <v>178</v>
       </c>
       <c r="F19" s="148" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G19" s="149" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="H19" s="69" t="s">
         <v>175</v>
@@ -7807,7 +7682,7 @@
       <c r="Q19" s="34"/>
       <c r="R19" s="48"/>
     </row>
-    <row r="20" spans="1:18" s="32" customFormat="1">
+    <row r="20" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A20" s="72" t="s">
         <v>102</v>
       </c>
@@ -7818,7 +7693,7 @@
         <v>174</v>
       </c>
       <c r="F20" s="148" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G20" s="149" t="s">
         <v>303</v>
@@ -7839,7 +7714,7 @@
       <c r="Q20" s="34"/>
       <c r="R20" s="48"/>
     </row>
-    <row r="21" spans="1:18" s="32" customFormat="1">
+    <row r="21" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A21" s="72" t="s">
         <v>145</v>
       </c>
@@ -7850,7 +7725,7 @@
         <v>176</v>
       </c>
       <c r="F21" s="148" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G21" s="149" t="s">
         <v>303</v>
@@ -7871,7 +7746,7 @@
       <c r="Q21" s="34"/>
       <c r="R21" s="48"/>
     </row>
-    <row r="22" spans="1:18" s="32" customFormat="1">
+    <row r="22" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A22" s="72" t="s">
         <v>146</v>
       </c>
@@ -7882,7 +7757,7 @@
         <v>177</v>
       </c>
       <c r="F22" s="148" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G22" s="149" t="s">
         <v>303</v>
@@ -7903,20 +7778,20 @@
       <c r="Q22" s="34"/>
       <c r="R22" s="48"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" ht="22.5">
       <c r="A23" s="72" t="s">
         <v>147</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="61"/>
-      <c r="D23" s="74"/>
+      <c r="D23" s="73" t="s">
+        <v>93</v>
+      </c>
       <c r="E23" s="158" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="148"/>
-      <c r="G23" s="149" t="s">
-        <v>304</v>
-      </c>
+      <c r="G23" s="149"/>
       <c r="H23" s="69" t="s">
         <v>90</v>
       </c>
@@ -7944,9 +7819,7 @@
         <v>27</v>
       </c>
       <c r="F24" s="148"/>
-      <c r="G24" s="149" t="s">
-        <v>303</v>
-      </c>
+      <c r="G24" s="149"/>
       <c r="H24" s="69" t="s">
         <v>90</v>
       </c>
@@ -7974,9 +7847,7 @@
         <v>28</v>
       </c>
       <c r="F25" s="148"/>
-      <c r="G25" s="149" t="s">
-        <v>303</v>
-      </c>
+      <c r="G25" s="149"/>
       <c r="H25" s="69" t="s">
         <v>90</v>
       </c>
@@ -8004,9 +7875,7 @@
         <v>29</v>
       </c>
       <c r="F26" s="148"/>
-      <c r="G26" s="149" t="s">
-        <v>303</v>
-      </c>
+      <c r="G26" s="149"/>
       <c r="H26" s="69" t="s">
         <v>90</v>
       </c>
@@ -8034,9 +7903,7 @@
         <v>25</v>
       </c>
       <c r="F27" s="148"/>
-      <c r="G27" s="149" t="s">
-        <v>303</v>
-      </c>
+      <c r="G27" s="149"/>
       <c r="H27" s="69" t="s">
         <v>90</v>
       </c>
@@ -8064,9 +7931,7 @@
         <v>34</v>
       </c>
       <c r="F28" s="148"/>
-      <c r="G28" s="149" t="s">
-        <v>305</v>
-      </c>
+      <c r="G28" s="149"/>
       <c r="H28" s="69" t="s">
         <v>90</v>
       </c>
@@ -8094,9 +7959,7 @@
         <v>36</v>
       </c>
       <c r="F29" s="148"/>
-      <c r="G29" s="149" t="s">
-        <v>303</v>
-      </c>
+      <c r="G29" s="149"/>
       <c r="H29" s="69" t="s">
         <v>90</v>
       </c>
@@ -8181,7 +8044,7 @@
       <c r="C32" s="38"/>
       <c r="D32" s="77"/>
       <c r="E32" s="159" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F32" s="148"/>
       <c r="G32" s="149"/>
@@ -8212,9 +8075,7 @@
         <v>119</v>
       </c>
       <c r="F33" s="148"/>
-      <c r="G33" s="149" t="s">
-        <v>314</v>
-      </c>
+      <c r="G33" s="149"/>
       <c r="H33" s="166" t="s">
         <v>170</v>
       </c>
@@ -8242,9 +8103,7 @@
         <v>120</v>
       </c>
       <c r="F34" s="148"/>
-      <c r="G34" s="149" t="s">
-        <v>303</v>
-      </c>
+      <c r="G34" s="149"/>
       <c r="H34" s="166" t="s">
         <v>170</v>
       </c>
@@ -8272,9 +8131,7 @@
         <v>121</v>
       </c>
       <c r="F35" s="148"/>
-      <c r="G35" s="149" t="s">
-        <v>303</v>
-      </c>
+      <c r="G35" s="149"/>
       <c r="H35" s="166" t="s">
         <v>170</v>
       </c>
@@ -8302,9 +8159,7 @@
         <v>122</v>
       </c>
       <c r="F36" s="148"/>
-      <c r="G36" s="149" t="s">
-        <v>303</v>
-      </c>
+      <c r="G36" s="149"/>
       <c r="H36" s="166" t="s">
         <v>170</v>
       </c>
@@ -8415,7 +8270,7 @@
         <v>126</v>
       </c>
       <c r="E40" s="159" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F40" s="148"/>
       <c r="G40" s="149"/>
@@ -8446,9 +8301,7 @@
         <v>127</v>
       </c>
       <c r="F41" s="148"/>
-      <c r="G41" s="149" t="s">
-        <v>314</v>
-      </c>
+      <c r="G41" s="149"/>
       <c r="H41" s="166" t="s">
         <v>170</v>
       </c>
@@ -8476,9 +8329,7 @@
         <v>128</v>
       </c>
       <c r="F42" s="148"/>
-      <c r="G42" s="149" t="s">
-        <v>303</v>
-      </c>
+      <c r="G42" s="149"/>
       <c r="H42" s="166" t="s">
         <v>170</v>
       </c>
@@ -8506,9 +8357,7 @@
         <v>129</v>
       </c>
       <c r="F43" s="148"/>
-      <c r="G43" s="149" t="s">
-        <v>303</v>
-      </c>
+      <c r="G43" s="149"/>
       <c r="H43" s="166" t="s">
         <v>170</v>
       </c>
@@ -8566,9 +8415,7 @@
         <v>203</v>
       </c>
       <c r="F45" s="148"/>
-      <c r="G45" s="149" t="s">
-        <v>306</v>
-      </c>
+      <c r="G45" s="149"/>
       <c r="H45" s="168" t="s">
         <v>208</v>
       </c>
@@ -8596,9 +8443,7 @@
         <v>204</v>
       </c>
       <c r="F46" s="148"/>
-      <c r="G46" s="149" t="s">
-        <v>303</v>
-      </c>
+      <c r="G46" s="149"/>
       <c r="H46" s="168" t="s">
         <v>208</v>
       </c>
@@ -8626,9 +8471,7 @@
         <v>207</v>
       </c>
       <c r="F47" s="148"/>
-      <c r="G47" s="149" t="s">
-        <v>303</v>
-      </c>
+      <c r="G47" s="149"/>
       <c r="H47" s="168" t="s">
         <v>210</v>
       </c>
@@ -8656,9 +8499,7 @@
         <v>212</v>
       </c>
       <c r="F48" s="148"/>
-      <c r="G48" s="149" t="s">
-        <v>303</v>
-      </c>
+      <c r="G48" s="149"/>
       <c r="H48" s="168" t="s">
         <v>210</v>
       </c>
@@ -8686,9 +8527,7 @@
         <v>213</v>
       </c>
       <c r="F49" s="148"/>
-      <c r="G49" s="149" t="s">
-        <v>303</v>
-      </c>
+      <c r="G49" s="149"/>
       <c r="H49" s="168" t="s">
         <v>210</v>
       </c>
@@ -8716,9 +8555,7 @@
         <v>214</v>
       </c>
       <c r="F50" s="148"/>
-      <c r="G50" s="149" t="s">
-        <v>303</v>
-      </c>
+      <c r="G50" s="149"/>
       <c r="H50" s="168" t="s">
         <v>210</v>
       </c>
@@ -8746,9 +8583,7 @@
         <v>215</v>
       </c>
       <c r="F51" s="148"/>
-      <c r="G51" s="149" t="s">
-        <v>303</v>
-      </c>
+      <c r="G51" s="149"/>
       <c r="H51" s="168" t="s">
         <v>210</v>
       </c>
@@ -8776,9 +8611,7 @@
         <v>216</v>
       </c>
       <c r="F52" s="148"/>
-      <c r="G52" s="149" t="s">
-        <v>303</v>
-      </c>
+      <c r="G52" s="149"/>
       <c r="H52" s="168" t="s">
         <v>210</v>
       </c>
@@ -8806,9 +8639,7 @@
         <v>217</v>
       </c>
       <c r="F53" s="148"/>
-      <c r="G53" s="149" t="s">
-        <v>303</v>
-      </c>
+      <c r="G53" s="149"/>
       <c r="H53" s="168" t="s">
         <v>210</v>
       </c>
@@ -8870,9 +8701,7 @@
         <v>53</v>
       </c>
       <c r="F55" s="148"/>
-      <c r="G55" s="149" t="s">
-        <v>307</v>
-      </c>
+      <c r="G55" s="149"/>
       <c r="H55" s="143" t="s">
         <v>51</v>
       </c>
@@ -8900,9 +8729,7 @@
         <v>54</v>
       </c>
       <c r="F56" s="148"/>
-      <c r="G56" s="149" t="s">
-        <v>303</v>
-      </c>
+      <c r="G56" s="149"/>
       <c r="H56" s="143" t="s">
         <v>51</v>
       </c>
@@ -8958,9 +8785,7 @@
         <v>56</v>
       </c>
       <c r="F58" s="148"/>
-      <c r="G58" s="149" t="s">
-        <v>307</v>
-      </c>
+      <c r="G58" s="149"/>
       <c r="H58" s="143" t="s">
         <v>51</v>
       </c>
@@ -8990,9 +8815,7 @@
         <v>57</v>
       </c>
       <c r="F59" s="148"/>
-      <c r="G59" s="149" t="s">
-        <v>308</v>
-      </c>
+      <c r="G59" s="149"/>
       <c r="H59" s="143" t="s">
         <v>51</v>
       </c>
@@ -9020,9 +8843,7 @@
         <v>58</v>
       </c>
       <c r="F60" s="148"/>
-      <c r="G60" s="149" t="s">
-        <v>309</v>
-      </c>
+      <c r="G60" s="149"/>
       <c r="H60" s="143" t="s">
         <v>51</v>
       </c>
@@ -9194,9 +9015,7 @@
         <v>236</v>
       </c>
       <c r="F66" s="148"/>
-      <c r="G66" s="149" t="s">
-        <v>310</v>
-      </c>
+      <c r="G66" s="149"/>
       <c r="H66" s="143" t="s">
         <v>140</v>
       </c>
@@ -9213,7 +9032,7 @@
       <c r="Q66" s="34"/>
       <c r="R66" s="48"/>
     </row>
-    <row r="67" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
+    <row r="67" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A67" s="81" t="s">
         <v>257</v>
       </c>
@@ -9224,10 +9043,10 @@
         <v>237</v>
       </c>
       <c r="F67" s="148" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G67" s="149" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H67" s="143" t="s">
         <v>140</v>
@@ -9256,9 +9075,7 @@
         <v>132</v>
       </c>
       <c r="F68" s="148"/>
-      <c r="G68" s="149" t="s">
-        <v>324</v>
-      </c>
+      <c r="G68" s="149"/>
       <c r="H68" s="143" t="s">
         <v>140</v>
       </c>
@@ -9286,9 +9103,7 @@
         <v>234</v>
       </c>
       <c r="F69" s="148"/>
-      <c r="G69" s="149" t="s">
-        <v>303</v>
-      </c>
+      <c r="G69" s="149"/>
       <c r="H69" s="143" t="s">
         <v>140</v>
       </c>
@@ -9316,9 +9131,7 @@
         <v>133</v>
       </c>
       <c r="F70" s="148"/>
-      <c r="G70" s="149" t="s">
-        <v>312</v>
-      </c>
+      <c r="G70" s="149"/>
       <c r="H70" s="143" t="s">
         <v>140</v>
       </c>
@@ -9346,9 +9159,7 @@
         <v>300</v>
       </c>
       <c r="F71" s="148"/>
-      <c r="G71" s="149" t="s">
-        <v>303</v>
-      </c>
+      <c r="G71" s="149"/>
       <c r="H71" s="143" t="s">
         <v>140</v>
       </c>
@@ -9595,7 +9406,7 @@
       <c r="Q79" s="34"/>
       <c r="R79" s="48"/>
     </row>
-    <row r="80" spans="1:18" s="32" customFormat="1" ht="22.5">
+    <row r="80" spans="1:18" s="32" customFormat="1" ht="22.5" hidden="1">
       <c r="A80" s="81" t="s">
         <v>270</v>
       </c>
@@ -9606,10 +9417,10 @@
       </c>
       <c r="E80" s="70"/>
       <c r="F80" s="148" t="s">
+        <v>308</v>
+      </c>
+      <c r="G80" s="149" t="s">
         <v>317</v>
-      </c>
-      <c r="G80" s="149" t="s">
-        <v>328</v>
       </c>
       <c r="H80" s="143" t="s">
         <v>140</v>
@@ -9799,7 +9610,7 @@
       <c r="Q86" s="34"/>
       <c r="R86" s="48"/>
     </row>
-    <row r="87" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
+    <row r="87" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A87" s="81" t="s">
         <v>277</v>
       </c>
@@ -9810,10 +9621,10 @@
       </c>
       <c r="E87" s="95"/>
       <c r="F87" s="148" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G87" s="149" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="H87" s="52" t="s">
         <v>141</v>
@@ -9831,7 +9642,7 @@
       <c r="Q87" s="34"/>
       <c r="R87" s="48"/>
     </row>
-    <row r="88" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
+    <row r="88" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A88" s="81" t="s">
         <v>278</v>
       </c>
@@ -9842,7 +9653,7 @@
       </c>
       <c r="E88" s="95"/>
       <c r="F88" s="148" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G88" s="149" t="s">
         <v>303</v>
@@ -9863,7 +9674,7 @@
       <c r="Q88" s="34"/>
       <c r="R88" s="48"/>
     </row>
-    <row r="89" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
+    <row r="89" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A89" s="81" t="s">
         <v>279</v>
       </c>
@@ -9874,7 +9685,7 @@
       </c>
       <c r="E89" s="95"/>
       <c r="F89" s="148" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G89" s="149" t="s">
         <v>303</v>
@@ -9895,7 +9706,7 @@
       <c r="Q89" s="34"/>
       <c r="R89" s="48"/>
     </row>
-    <row r="90" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
+    <row r="90" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A90" s="81" t="s">
         <v>280</v>
       </c>
@@ -9906,7 +9717,7 @@
       </c>
       <c r="E90" s="95"/>
       <c r="F90" s="148" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G90" s="149" t="s">
         <v>303</v>
@@ -9927,7 +9738,7 @@
       <c r="Q90" s="34"/>
       <c r="R90" s="48"/>
     </row>
-    <row r="91" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
+    <row r="91" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A91" s="81" t="s">
         <v>281</v>
       </c>
@@ -9938,7 +9749,7 @@
       </c>
       <c r="E91" s="95"/>
       <c r="F91" s="148" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G91" s="149" t="s">
         <v>303</v>
@@ -10099,7 +9910,7 @@
       <c r="Q96" s="34"/>
       <c r="R96" s="48"/>
     </row>
-    <row r="97" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
+    <row r="97" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A97" s="81" t="s">
         <v>287</v>
       </c>
@@ -10110,10 +9921,10 @@
       </c>
       <c r="E97" s="95"/>
       <c r="F97" s="148" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G97" s="149" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="H97" s="169" t="s">
         <v>141</v>
@@ -10215,7 +10026,7 @@
       <c r="Q100" s="133"/>
       <c r="R100" s="136"/>
     </row>
-    <row r="101" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
+    <row r="101" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A101" s="123" t="s">
         <v>291</v>
       </c>
@@ -10226,10 +10037,10 @@
       </c>
       <c r="E101" s="113"/>
       <c r="F101" s="148" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G101" s="149" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="H101" s="61" t="s">
         <v>141</v>
@@ -10247,7 +10058,7 @@
       <c r="Q101" s="106"/>
       <c r="R101" s="124"/>
     </row>
-    <row r="102" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
+    <row r="102" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A102" s="125" t="s">
         <v>292</v>
       </c>
@@ -10258,10 +10069,10 @@
       </c>
       <c r="E102" s="128"/>
       <c r="F102" s="148" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G102" s="149" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="H102" s="170" t="s">
         <v>141</v>
@@ -10448,7 +10259,11 @@
       <c r="H128" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A10:R102"/>
+  <autoFilter ref="A10:R102">
+    <filterColumn colId="5">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -10468,21 +10283,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="8.625" style="25" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="25" customWidth="1"/>
     <col min="4" max="5" width="15.625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="6.125" style="25" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="60.625" style="25" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="60.625" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.625" style="25" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="20.625" style="25" customWidth="1"/>
     <col min="10" max="11" width="30.625" style="25" customWidth="1"/>
     <col min="12" max="12" width="20.625" style="25" customWidth="1"/>
@@ -10553,14 +10368,11 @@
       <c r="R8" s="27"/>
     </row>
     <row r="9" spans="1:18" ht="12" thickTop="1">
-      <c r="F9" s="25" t="s">
-        <v>323</v>
-      </c>
       <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>9</v>
@@ -10575,10 +10387,10 @@
         <v>98</v>
       </c>
       <c r="F10" s="175" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G10" s="175" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="H10" s="29" t="s">
         <v>12</v>
@@ -10596,7 +10408,7 @@
         <v>2</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="N10" s="30" t="s">
         <v>5</v>
@@ -10616,7 +10428,7 @@
     </row>
     <row r="11" spans="1:18" s="32" customFormat="1" ht="78.75">
       <c r="A11" s="185" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B11" s="186" t="s">
         <v>104</v>
@@ -10631,14 +10443,14 @@
       <c r="F11" s="171"/>
       <c r="G11" s="171"/>
       <c r="H11" s="186" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="I11" s="186" t="s">
         <v>301</v>
       </c>
       <c r="J11" s="89"/>
       <c r="K11" s="89"/>
-      <c r="L11" s="268"/>
+      <c r="L11" s="203"/>
       <c r="M11" s="176"/>
       <c r="N11" s="176"/>
       <c r="O11" s="187"/>
@@ -10648,18 +10460,18 @@
     </row>
     <row r="12" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A12" s="188" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B12" s="98"/>
       <c r="C12" s="98"/>
       <c r="D12" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="265"/>
+      <c r="E12" s="202"/>
       <c r="F12" s="171"/>
       <c r="G12" s="171"/>
       <c r="H12" s="186" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="I12" s="186" t="s">
         <v>106</v>
@@ -10676,18 +10488,18 @@
     </row>
     <row r="13" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A13" s="188" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B13" s="98"/>
       <c r="C13" s="98"/>
       <c r="D13" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="265"/>
+      <c r="E13" s="202"/>
       <c r="F13" s="171"/>
       <c r="G13" s="171"/>
       <c r="H13" s="186" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="I13" s="186" t="s">
         <v>106</v>
@@ -10704,18 +10516,18 @@
     </row>
     <row r="14" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A14" s="188" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B14" s="98"/>
       <c r="C14" s="98"/>
       <c r="D14" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="265"/>
+      <c r="E14" s="202"/>
       <c r="F14" s="171"/>
       <c r="G14" s="171"/>
       <c r="H14" s="186" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="I14" s="186" t="s">
         <v>106</v>
@@ -10732,7 +10544,7 @@
     </row>
     <row r="15" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A15" s="188" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B15" s="98"/>
       <c r="C15" s="98"/>
@@ -10745,7 +10557,7 @@
       <c r="F15" s="171"/>
       <c r="G15" s="171"/>
       <c r="H15" s="186" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="I15" s="186" t="s">
         <v>106</v>
@@ -10762,7 +10574,7 @@
     </row>
     <row r="16" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A16" s="188" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B16" s="98"/>
       <c r="C16" s="98"/>
@@ -10773,7 +10585,7 @@
       <c r="F16" s="171"/>
       <c r="G16" s="171"/>
       <c r="H16" s="186" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="I16" s="186" t="s">
         <v>106</v>
@@ -10790,7 +10602,7 @@
     </row>
     <row r="17" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A17" s="188" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B17" s="98"/>
       <c r="C17" s="98"/>
@@ -10801,7 +10613,7 @@
       <c r="F17" s="171"/>
       <c r="G17" s="171"/>
       <c r="H17" s="186" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="I17" s="186" t="s">
         <v>106</v>
@@ -10818,7 +10630,7 @@
     </row>
     <row r="18" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A18" s="188" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B18" s="98"/>
       <c r="C18" s="98"/>
@@ -10829,7 +10641,7 @@
       <c r="F18" s="171"/>
       <c r="G18" s="171"/>
       <c r="H18" s="186" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="I18" s="186" t="s">
         <v>106</v>
@@ -10846,12 +10658,12 @@
     </row>
     <row r="19" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A19" s="188" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B19" s="98"/>
       <c r="C19" s="98"/>
       <c r="D19" s="100" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="E19" s="53" t="s">
         <v>113</v>
@@ -10859,7 +10671,7 @@
       <c r="F19" s="171"/>
       <c r="G19" s="171"/>
       <c r="H19" s="186" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="I19" s="186" t="s">
         <v>106</v>
@@ -10876,7 +10688,7 @@
     </row>
     <row r="20" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A20" s="188" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B20" s="98"/>
       <c r="C20" s="98"/>
@@ -10884,12 +10696,12 @@
         <v>144</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="F20" s="171"/>
       <c r="G20" s="171"/>
       <c r="H20" s="186" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="I20" s="186" t="s">
         <v>106</v>
@@ -10906,18 +10718,18 @@
     </row>
     <row r="21" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A21" s="188" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B21" s="98"/>
       <c r="C21" s="98"/>
       <c r="D21" s="267" t="s">
-        <v>320</v>
-      </c>
-      <c r="E21" s="266"/>
+        <v>311</v>
+      </c>
+      <c r="E21" s="268"/>
       <c r="F21" s="171"/>
       <c r="G21" s="171"/>
       <c r="H21" s="186" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="I21" s="186" t="s">
         <v>106</v>
@@ -10934,7 +10746,7 @@
     </row>
     <row r="22" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A22" s="188" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B22" s="98"/>
       <c r="C22" s="190" t="s">
@@ -10943,11 +10755,11 @@
       <c r="D22" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="265"/>
+      <c r="E22" s="202"/>
       <c r="F22" s="171"/>
       <c r="G22" s="171"/>
       <c r="H22" s="186" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="I22" s="186" t="s">
         <v>106</v>
@@ -10964,18 +10776,18 @@
     </row>
     <row r="23" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A23" s="188" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B23" s="99"/>
       <c r="C23" s="99"/>
       <c r="D23" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="265"/>
+      <c r="E23" s="202"/>
       <c r="F23" s="171"/>
       <c r="G23" s="171"/>
       <c r="H23" s="186" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="I23" s="186" t="s">
         <v>106</v>
@@ -10990,9 +10802,9 @@
       <c r="Q23" s="179"/>
       <c r="R23" s="179"/>
     </row>
-    <row r="24" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
+    <row r="24" spans="1:18" s="32" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A24" s="188" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B24" s="186" t="s">
         <v>243</v>
@@ -11003,16 +10815,16 @@
       <c r="D24" s="173"/>
       <c r="E24" s="174"/>
       <c r="F24" s="171" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G24" s="172" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="H24" s="100" t="s">
         <v>35</v>
       </c>
       <c r="I24" s="53" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="J24" s="177"/>
       <c r="K24" s="177"/>
@@ -11024,27 +10836,27 @@
       <c r="Q24" s="179"/>
       <c r="R24" s="179"/>
     </row>
-    <row r="25" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
+    <row r="25" spans="1:18" s="32" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A25" s="193" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B25" s="140"/>
       <c r="C25" s="194" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D25" s="195"/>
       <c r="E25" s="196"/>
       <c r="F25" s="171" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G25" s="171" t="s">
         <v>303</v>
       </c>
-      <c r="H25" s="264" t="s">
-        <v>329</v>
-      </c>
-      <c r="I25" s="264" t="s">
-        <v>329</v>
+      <c r="H25" s="201" t="s">
+        <v>318</v>
+      </c>
+      <c r="I25" s="201" t="s">
+        <v>318</v>
       </c>
       <c r="J25" s="182"/>
       <c r="K25" s="182"/>
@@ -11149,14 +10961,18 @@
       <c r="E41" s="97"/>
     </row>
   </sheetData>
-  <autoFilter ref="A10:R25"/>
+  <autoFilter ref="A10:R25">
+    <filterColumn colId="5">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="43" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"&amp;9- &amp;P -</oddFooter>
   </headerFooter>
